--- a/Excel-XLSX/UN-TKM.xlsx
+++ b/Excel-XLSX/UN-TKM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="266">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>p8M7Ra</t>
+    <t>Om7d2Y</t>
   </si>
   <si>
     <t>1993</t>
@@ -117,12 +117,480 @@
     <t>0</t>
   </si>
   <si>
-    <t>null</t>
+    <t>-</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>3100</t>
+  </si>
+  <si>
+    <t>1750</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>5450</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>1115</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>1442</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>1450</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1515</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>1263</t>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>1224</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>1030</t>
   </si>
   <si>
     <t>189</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>749</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>710</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>ARM</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>AZE</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>Iran (Islamic Rep. of)</t>
+  </si>
+  <si>
+    <t>IRN</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>IRQ</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
     <t>Tajikistan</t>
   </si>
   <si>
@@ -132,73 +600,208 @@
     <t>15000</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
-    <t>AZE</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>Iran (Islamic Rep. of)</t>
-  </si>
-  <si>
-    <t>IRN</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>RUS</t>
-  </si>
-  <si>
-    <t>9</t>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
   </si>
   <si>
     <t>20000</t>
   </si>
   <si>
-    <t>10</t>
+    <t>98</t>
+  </si>
+  <si>
+    <t>12170</t>
+  </si>
+  <si>
+    <t>5330</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>13501</t>
+  </si>
+  <si>
+    <t>2490</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>17002</t>
+  </si>
+  <si>
+    <t>2261</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>12659</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>12383</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>12272</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>12142</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>12085</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>11173</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>Stateless</t>
+  </si>
+  <si>
+    <t>STA</t>
+  </si>
+  <si>
+    <t>XXA</t>
+  </si>
+  <si>
+    <t>8500</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>12000</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>11000</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>8947</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>8320</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>7511</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>7125</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>5744</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>3851</t>
+  </si>
+  <si>
+    <t>4714</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>3688</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>3924</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>4280</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>4527</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>3351</t>
+  </si>
+  <si>
+    <t>126</t>
   </si>
   <si>
     <t>262</t>
@@ -210,592 +813,7 @@
     <t>UKN</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>3100</t>
-  </si>
-  <si>
-    <t>1750</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>290</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>IRQ</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>12170</t>
-  </si>
-  <si>
-    <t>5330</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>5450</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>1115</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>13501</t>
-  </si>
-  <si>
-    <t>2490</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>1442</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>17002</t>
-  </si>
-  <si>
-    <t>2261</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>1450</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>12659</t>
-  </si>
-  <si>
-    <t>349</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1515</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>12383</t>
-  </si>
-  <si>
-    <t>252</t>
-  </si>
-  <si>
-    <t>276</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>1263</t>
-  </si>
-  <si>
-    <t>283</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>12272</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>1224</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>12142</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>1030</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>12085</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>749</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>ARM</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>11173</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>710</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>Stateless</t>
-  </si>
-  <si>
-    <t>STA</t>
-  </si>
-  <si>
-    <t>XXA</t>
-  </si>
-  <si>
-    <t>8500</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>12000</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>11000</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>8947</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>8320</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>7511</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>7125</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>5744</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>3851</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>4714</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>3688</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>3924</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>4280</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>4463</t>
+    <t>UNK</t>
   </si>
 </sst>
 </file>
@@ -1180,7 +1198,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V124"/>
+  <dimension ref="A1:V127"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1320,8 +1338,8 @@
       <c r="U2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>32</v>
+      <c r="V2" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -1338,19 +1356,19 @@
         <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>28</v>
@@ -1365,7 +1383,7 @@
         <v>30</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>32</v>
@@ -1388,8 +1406,8 @@
       <c r="U3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>32</v>
+      <c r="V3" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -1403,10 +1421,10 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>25</v>
@@ -1433,7 +1451,7 @@
         <v>30</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>32</v>
@@ -1456,8 +1474,8 @@
       <c r="U4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="2" t="s">
-        <v>32</v>
+      <c r="V4" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -1471,22 +1489,22 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>28</v>
@@ -1501,13 +1519,13 @@
         <v>30</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>32</v>
@@ -1524,8 +1542,8 @@
       <c r="U5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="2" t="s">
-        <v>32</v>
+      <c r="V5" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -1539,10 +1557,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>25</v>
@@ -1569,7 +1587,7 @@
         <v>30</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>32</v>
@@ -1592,8 +1610,8 @@
       <c r="U6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V6" s="2" t="s">
-        <v>32</v>
+      <c r="V6" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7">
@@ -1607,38 +1625,38 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>32</v>
       </c>
@@ -1660,8 +1678,8 @@
       <c r="U7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>32</v>
+      <c r="V7" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -1675,44 +1693,44 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="O8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="Q8" s="2" t="s">
         <v>32</v>
       </c>
@@ -1728,8 +1746,8 @@
       <c r="U8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="2" t="s">
-        <v>32</v>
+      <c r="V8" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -1743,44 +1761,44 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="P9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="Q9" s="2" t="s">
         <v>32</v>
       </c>
@@ -1796,8 +1814,8 @@
       <c r="U9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V9" s="2" t="s">
-        <v>32</v>
+      <c r="V9" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10">
@@ -1811,22 +1829,22 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>28</v>
@@ -1844,10 +1862,10 @@
         <v>59</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>32</v>
@@ -1864,8 +1882,8 @@
       <c r="U10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V10" s="2" t="s">
-        <v>32</v>
+      <c r="V10" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11">
@@ -1879,22 +1897,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>28</v>
@@ -1909,13 +1927,13 @@
         <v>30</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>32</v>
@@ -1932,8 +1950,8 @@
       <c r="U11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="2" t="s">
-        <v>32</v>
+      <c r="V11" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12">
@@ -1947,10 +1965,10 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>25</v>
@@ -1977,13 +1995,13 @@
         <v>30</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>32</v>
@@ -2000,8 +2018,8 @@
       <c r="U12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="2" t="s">
-        <v>32</v>
+      <c r="V12" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13">
@@ -2015,22 +2033,22 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>28</v>
@@ -2045,13 +2063,13 @@
         <v>30</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>32</v>
@@ -2068,8 +2086,8 @@
       <c r="U13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V13" s="2" t="s">
-        <v>32</v>
+      <c r="V13" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14">
@@ -2083,22 +2101,22 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>28</v>
@@ -2113,13 +2131,13 @@
         <v>30</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>32</v>
@@ -2136,8 +2154,8 @@
       <c r="U14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V14" s="2" t="s">
-        <v>32</v>
+      <c r="V14" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15">
@@ -2151,22 +2169,22 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>28</v>
@@ -2181,7 +2199,7 @@
         <v>30</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>32</v>
@@ -2204,8 +2222,8 @@
       <c r="U15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="2" t="s">
-        <v>32</v>
+      <c r="V15" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16">
@@ -2219,22 +2237,22 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>28</v>
@@ -2249,13 +2267,13 @@
         <v>30</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>32</v>
@@ -2272,8 +2290,8 @@
       <c r="U16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V16" s="2" t="s">
-        <v>32</v>
+      <c r="V16" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17">
@@ -2287,22 +2305,22 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>28</v>
@@ -2317,13 +2335,13 @@
         <v>30</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="Q17" s="2" t="s">
         <v>32</v>
@@ -2340,8 +2358,8 @@
       <c r="U17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V17" s="2" t="s">
-        <v>32</v>
+      <c r="V17" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18">
@@ -2355,10 +2373,10 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>25</v>
@@ -2385,13 +2403,13 @@
         <v>30</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>32</v>
@@ -2408,8 +2426,8 @@
       <c r="U18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V18" s="2" t="s">
-        <v>32</v>
+      <c r="V18" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19">
@@ -2423,22 +2441,22 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>28</v>
@@ -2453,7 +2471,7 @@
         <v>30</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>32</v>
@@ -2476,8 +2494,8 @@
       <c r="U19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V19" s="2" t="s">
-        <v>32</v>
+      <c r="V19" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20">
@@ -2491,22 +2509,22 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>28</v>
@@ -2521,7 +2539,7 @@
         <v>30</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>32</v>
@@ -2544,8 +2562,8 @@
       <c r="U20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V20" s="2" t="s">
-        <v>32</v>
+      <c r="V20" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21">
@@ -2559,22 +2577,22 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>28</v>
@@ -2589,7 +2607,7 @@
         <v>30</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>32</v>
@@ -2612,8 +2630,8 @@
       <c r="U21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V21" s="2" t="s">
-        <v>32</v>
+      <c r="V21" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22">
@@ -2627,22 +2645,22 @@
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>28</v>
@@ -2657,7 +2675,7 @@
         <v>30</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>32</v>
@@ -2680,8 +2698,8 @@
       <c r="U22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V22" s="2" t="s">
-        <v>32</v>
+      <c r="V22" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23">
@@ -2695,22 +2713,22 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>28</v>
@@ -2725,13 +2743,13 @@
         <v>30</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="Q23" s="2" t="s">
         <v>32</v>
@@ -2748,8 +2766,8 @@
       <c r="U23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V23" s="2" t="s">
-        <v>32</v>
+      <c r="V23" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24">
@@ -2763,10 +2781,10 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>25</v>
@@ -2816,8 +2834,8 @@
       <c r="U24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V24" s="2" t="s">
-        <v>32</v>
+      <c r="V24" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -2831,22 +2849,22 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>28</v>
@@ -2861,7 +2879,7 @@
         <v>30</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>32</v>
@@ -2884,8 +2902,8 @@
       <c r="U25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V25" s="2" t="s">
-        <v>32</v>
+      <c r="V25" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26">
@@ -2899,22 +2917,22 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>28</v>
@@ -2929,7 +2947,7 @@
         <v>30</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>32</v>
@@ -2947,13 +2965,13 @@
         <v>32</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="U26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V26" s="2" t="s">
-        <v>32</v>
+      <c r="V26" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27">
@@ -2967,22 +2985,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>28</v>
@@ -2997,7 +3015,7 @@
         <v>30</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>32</v>
@@ -3020,8 +3038,8 @@
       <c r="U27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V27" s="2" t="s">
-        <v>32</v>
+      <c r="V27" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28">
@@ -3035,22 +3053,22 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>28</v>
@@ -3065,13 +3083,13 @@
         <v>30</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="Q28" s="2" t="s">
         <v>32</v>
@@ -3088,8 +3106,8 @@
       <c r="U28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V28" s="2" t="s">
-        <v>32</v>
+      <c r="V28" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="29">
@@ -3103,10 +3121,10 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>25</v>
@@ -3133,13 +3151,13 @@
         <v>30</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="Q29" s="2" t="s">
         <v>32</v>
@@ -3156,8 +3174,8 @@
       <c r="U29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V29" s="2" t="s">
-        <v>32</v>
+      <c r="V29" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="30">
@@ -3171,22 +3189,22 @@
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>28</v>
@@ -3201,13 +3219,13 @@
         <v>30</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="Q30" s="2" t="s">
         <v>32</v>
@@ -3224,8 +3242,8 @@
       <c r="U30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V30" s="2" t="s">
-        <v>32</v>
+      <c r="V30" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31">
@@ -3239,22 +3257,22 @@
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>28</v>
@@ -3269,13 +3287,13 @@
         <v>30</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="Q31" s="2" t="s">
         <v>32</v>
@@ -3307,10 +3325,10 @@
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>25</v>
@@ -3337,13 +3355,13 @@
         <v>30</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="Q32" s="2" t="s">
         <v>32</v>
@@ -3375,22 +3393,22 @@
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>28</v>
@@ -3405,13 +3423,13 @@
         <v>30</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="Q33" s="2" t="s">
         <v>32</v>
@@ -3428,8 +3446,8 @@
       <c r="U33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V33" s="2" t="s">
-        <v>32</v>
+      <c r="V33" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34">
@@ -3443,22 +3461,22 @@
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>28</v>
@@ -3473,7 +3491,7 @@
         <v>30</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O34" s="2" t="s">
         <v>32</v>
@@ -3496,8 +3514,8 @@
       <c r="U34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V34" s="2" t="s">
-        <v>32</v>
+      <c r="V34" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35">
@@ -3511,22 +3529,22 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>28</v>
@@ -3541,7 +3559,7 @@
         <v>30</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>32</v>
@@ -3564,8 +3582,8 @@
       <c r="U35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V35" s="2" t="s">
-        <v>32</v>
+      <c r="V35" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="36">
@@ -3579,22 +3597,22 @@
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>28</v>
@@ -3609,13 +3627,13 @@
         <v>30</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="Q36" s="2" t="s">
         <v>32</v>
@@ -3632,8 +3650,8 @@
       <c r="U36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="2" t="s">
-        <v>32</v>
+      <c r="V36" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="37">
@@ -3647,22 +3665,22 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="H37" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="I37" s="1" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>28</v>
@@ -3677,13 +3695,13 @@
         <v>30</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="Q37" s="2" t="s">
         <v>32</v>
@@ -3700,8 +3718,8 @@
       <c r="U37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V37" s="2" t="s">
-        <v>32</v>
+      <c r="V37" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="38">
@@ -3715,22 +3733,22 @@
         <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E38" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="I38" s="1" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>28</v>
@@ -3745,13 +3763,13 @@
         <v>30</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>32</v>
@@ -3768,8 +3786,8 @@
       <c r="U38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>32</v>
+      <c r="V38" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="39">
@@ -3783,22 +3801,22 @@
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="I39" s="1" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>28</v>
@@ -3813,10 +3831,10 @@
         <v>30</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>32</v>
@@ -3836,8 +3854,8 @@
       <c r="U39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V39" s="2" t="s">
-        <v>32</v>
+      <c r="V39" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="40">
@@ -3851,22 +3869,22 @@
         <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E40" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="I40" s="1" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>28</v>
@@ -3881,13 +3899,13 @@
         <v>30</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="Q40" s="2" t="s">
         <v>32</v>
@@ -3904,8 +3922,8 @@
       <c r="U40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V40" s="2" t="s">
-        <v>32</v>
+      <c r="V40" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="41">
@@ -3919,22 +3937,22 @@
         <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>28</v>
@@ -3949,13 +3967,13 @@
         <v>30</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="O41" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="Q41" s="2" t="s">
         <v>32</v>
@@ -3972,8 +3990,8 @@
       <c r="U41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V41" s="2" t="s">
-        <v>32</v>
+      <c r="V41" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="42">
@@ -3987,22 +4005,22 @@
         <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>28</v>
@@ -4017,7 +4035,7 @@
         <v>30</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>32</v>
@@ -4040,8 +4058,8 @@
       <c r="U42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V42" s="2" t="s">
-        <v>32</v>
+      <c r="V42" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="43">
@@ -4055,22 +4073,22 @@
         <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>28</v>
@@ -4085,13 +4103,13 @@
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="Q43" s="2" t="s">
         <v>32</v>
@@ -4108,8 +4126,8 @@
       <c r="U43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V43" s="2" t="s">
-        <v>32</v>
+      <c r="V43" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="44">
@@ -4123,22 +4141,22 @@
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>28</v>
@@ -4153,13 +4171,13 @@
         <v>30</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="O44" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="Q44" s="2" t="s">
         <v>32</v>
@@ -4176,8 +4194,8 @@
       <c r="U44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V44" s="2" t="s">
-        <v>32</v>
+      <c r="V44" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="45">
@@ -4191,22 +4209,22 @@
         <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>28</v>
@@ -4221,13 +4239,13 @@
         <v>30</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="O45" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="Q45" s="2" t="s">
         <v>32</v>
@@ -4244,8 +4262,8 @@
       <c r="U45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V45" s="2" t="s">
-        <v>32</v>
+      <c r="V45" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="46">
@@ -4259,22 +4277,22 @@
         <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>28</v>
@@ -4289,13 +4307,13 @@
         <v>30</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>142</v>
+        <v>86</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="Q46" s="2" t="s">
         <v>32</v>
@@ -4312,8 +4330,8 @@
       <c r="U46" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V46" s="2" t="s">
-        <v>32</v>
+      <c r="V46" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="47">
@@ -4327,22 +4345,22 @@
         <v>22</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>28</v>
@@ -4357,13 +4375,13 @@
         <v>30</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="Q47" s="2" t="s">
         <v>32</v>
@@ -4380,8 +4398,8 @@
       <c r="U47" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V47" s="2" t="s">
-        <v>32</v>
+      <c r="V47" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="48">
@@ -4395,22 +4413,22 @@
         <v>22</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>28</v>
@@ -4425,13 +4443,13 @@
         <v>30</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>146</v>
+        <v>86</v>
       </c>
       <c r="Q48" s="2" t="s">
         <v>32</v>
@@ -4448,8 +4466,8 @@
       <c r="U48" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V48" s="2" t="s">
-        <v>32</v>
+      <c r="V48" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="49">
@@ -4463,22 +4481,22 @@
         <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>148</v>
+        <v>63</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>28</v>
@@ -4493,13 +4511,13 @@
         <v>30</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="O49" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q49" s="2" t="s">
         <v>32</v>
@@ -4516,8 +4534,8 @@
       <c r="U49" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V49" s="2" t="s">
-        <v>32</v>
+      <c r="V49" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="50">
@@ -4531,22 +4549,22 @@
         <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>28</v>
@@ -4561,10 +4579,10 @@
         <v>30</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="P50" s="2" t="s">
         <v>32</v>
@@ -4584,8 +4602,8 @@
       <c r="U50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V50" s="2" t="s">
-        <v>32</v>
+      <c r="V50" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="51">
@@ -4599,22 +4617,22 @@
         <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>148</v>
+        <v>71</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>28</v>
@@ -4629,13 +4647,13 @@
         <v>30</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="O51" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="Q51" s="2" t="s">
         <v>32</v>
@@ -4652,8 +4670,8 @@
       <c r="U51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V51" s="2" t="s">
-        <v>32</v>
+      <c r="V51" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="52">
@@ -4667,22 +4685,22 @@
         <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>28</v>
@@ -4697,13 +4715,13 @@
         <v>30</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="O52" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="Q52" s="2" t="s">
         <v>32</v>
@@ -4720,8 +4738,8 @@
       <c r="U52" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V52" s="2" t="s">
-        <v>32</v>
+      <c r="V52" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="53">
@@ -4735,22 +4753,22 @@
         <v>22</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>28</v>
@@ -4765,13 +4783,13 @@
         <v>30</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="O53" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="Q53" s="2" t="s">
         <v>32</v>
@@ -4788,8 +4806,8 @@
       <c r="U53" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="2" t="s">
-        <v>32</v>
+      <c r="V53" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="54">
@@ -4803,22 +4821,22 @@
         <v>22</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>28</v>
@@ -4833,10 +4851,10 @@
         <v>30</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="P54" s="2" t="s">
         <v>32</v>
@@ -4856,8 +4874,8 @@
       <c r="U54" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V54" s="2" t="s">
-        <v>32</v>
+      <c r="V54" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="55">
@@ -4871,22 +4889,22 @@
         <v>22</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>28</v>
@@ -4901,7 +4919,7 @@
         <v>30</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="O55" s="2" t="s">
         <v>32</v>
@@ -4924,8 +4942,8 @@
       <c r="U55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V55" s="2" t="s">
-        <v>32</v>
+      <c r="V55" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="56">
@@ -4939,22 +4957,22 @@
         <v>22</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>28</v>
@@ -4969,7 +4987,7 @@
         <v>30</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="O56" s="2" t="s">
         <v>32</v>
@@ -4992,8 +5010,8 @@
       <c r="U56" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V56" s="2" t="s">
-        <v>32</v>
+      <c r="V56" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="57">
@@ -5007,22 +5025,22 @@
         <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>157</v>
+        <v>90</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>28</v>
@@ -5037,13 +5055,13 @@
         <v>30</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="O57" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="Q57" s="2" t="s">
         <v>32</v>
@@ -5060,8 +5078,8 @@
       <c r="U57" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V57" s="2" t="s">
-        <v>32</v>
+      <c r="V57" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="58">
@@ -5075,22 +5093,22 @@
         <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>166</v>
+        <v>93</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>28</v>
@@ -5105,7 +5123,7 @@
         <v>30</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>167</v>
+        <v>101</v>
       </c>
       <c r="O58" s="2" t="s">
         <v>32</v>
@@ -5128,8 +5146,8 @@
       <c r="U58" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V58" s="2" t="s">
-        <v>32</v>
+      <c r="V58" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="59">
@@ -5143,22 +5161,22 @@
         <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>166</v>
+        <v>96</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>28</v>
@@ -5173,7 +5191,7 @@
         <v>30</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="O59" s="2" t="s">
         <v>32</v>
@@ -5196,8 +5214,8 @@
       <c r="U59" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V59" s="2" t="s">
-        <v>32</v>
+      <c r="V59" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="60">
@@ -5211,22 +5229,22 @@
         <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>28</v>
@@ -5241,7 +5259,7 @@
         <v>30</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O60" s="2" t="s">
         <v>32</v>
@@ -5264,8 +5282,8 @@
       <c r="U60" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V60" s="2" t="s">
-        <v>32</v>
+      <c r="V60" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="61">
@@ -5279,22 +5297,22 @@
         <v>22</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>28</v>
@@ -5309,7 +5327,7 @@
         <v>30</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="O61" s="2" t="s">
         <v>32</v>
@@ -5332,8 +5350,8 @@
       <c r="U61" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V61" s="2" t="s">
-        <v>32</v>
+      <c r="V61" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="62">
@@ -5347,22 +5365,22 @@
         <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>166</v>
+        <v>102</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>28</v>
@@ -5377,13 +5395,13 @@
         <v>30</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="O62" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="Q62" s="2" t="s">
         <v>32</v>
@@ -5400,8 +5418,8 @@
       <c r="U62" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V62" s="2" t="s">
-        <v>32</v>
+      <c r="V62" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="63">
@@ -5415,22 +5433,22 @@
         <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>172</v>
+        <v>104</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>28</v>
@@ -5445,13 +5463,13 @@
         <v>30</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>173</v>
+        <v>48</v>
       </c>
       <c r="O63" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="Q63" s="2" t="s">
         <v>32</v>
@@ -5468,8 +5486,8 @@
       <c r="U63" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V63" s="2" t="s">
-        <v>32</v>
+      <c r="V63" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="64">
@@ -5483,22 +5501,22 @@
         <v>22</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>28</v>
@@ -5513,7 +5531,7 @@
         <v>30</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="O64" s="2" t="s">
         <v>32</v>
@@ -5536,8 +5554,8 @@
       <c r="U64" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V64" s="2" t="s">
-        <v>32</v>
+      <c r="V64" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="65">
@@ -5551,22 +5569,22 @@
         <v>22</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>172</v>
+        <v>108</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>28</v>
@@ -5581,10 +5599,10 @@
         <v>30</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="P65" s="2" t="s">
         <v>32</v>
@@ -5604,8 +5622,8 @@
       <c r="U65" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V65" s="2" t="s">
-        <v>32</v>
+      <c r="V65" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="66">
@@ -5619,22 +5637,22 @@
         <v>22</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>172</v>
+        <v>110</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>28</v>
@@ -5649,7 +5667,7 @@
         <v>30</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="O66" s="2" t="s">
         <v>32</v>
@@ -5672,8 +5690,8 @@
       <c r="U66" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V66" s="2" t="s">
-        <v>32</v>
+      <c r="V66" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="67">
@@ -5687,22 +5705,22 @@
         <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>28</v>
@@ -5717,7 +5735,7 @@
         <v>30</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="O67" s="2" t="s">
         <v>32</v>
@@ -5732,7 +5750,7 @@
         <v>32</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>182</v>
+        <v>32</v>
       </c>
       <c r="T67" s="2" t="s">
         <v>32</v>
@@ -5740,8 +5758,8 @@
       <c r="U67" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V67" s="2" t="s">
-        <v>32</v>
+      <c r="V67" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="68">
@@ -5755,22 +5773,22 @@
         <v>22</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>184</v>
+        <v>113</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>28</v>
@@ -5785,13 +5803,13 @@
         <v>30</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>143</v>
+        <v>45</v>
       </c>
       <c r="O68" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="Q68" s="2" t="s">
         <v>32</v>
@@ -5808,8 +5826,8 @@
       <c r="U68" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V68" s="2" t="s">
-        <v>32</v>
+      <c r="V68" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="69">
@@ -5823,22 +5841,22 @@
         <v>22</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>184</v>
+        <v>114</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>28</v>
@@ -5853,7 +5871,7 @@
         <v>30</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O69" s="2" t="s">
         <v>32</v>
@@ -5891,22 +5909,22 @@
         <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>184</v>
+        <v>115</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>28</v>
@@ -5921,7 +5939,7 @@
         <v>30</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="O70" s="2" t="s">
         <v>32</v>
@@ -5959,22 +5977,22 @@
         <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>184</v>
+        <v>36</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>55</v>
+        <v>162</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>56</v>
+        <v>163</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>57</v>
+        <v>164</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>57</v>
+        <v>164</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>28</v>
@@ -5989,7 +6007,7 @@
         <v>30</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="O71" s="2" t="s">
         <v>32</v>
@@ -6012,8 +6030,8 @@
       <c r="U71" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V71" s="2" t="s">
-        <v>32</v>
+      <c r="V71" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="72">
@@ -6027,22 +6045,22 @@
         <v>22</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>184</v>
+        <v>39</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>28</v>
@@ -6057,7 +6075,7 @@
         <v>30</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="O72" s="2" t="s">
         <v>32</v>
@@ -6072,7 +6090,7 @@
         <v>32</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>182</v>
+        <v>32</v>
       </c>
       <c r="T72" s="2" t="s">
         <v>32</v>
@@ -6080,8 +6098,8 @@
       <c r="U72" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V72" s="2" t="s">
-        <v>32</v>
+      <c r="V72" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="73">
@@ -6095,22 +6113,22 @@
         <v>22</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>189</v>
+        <v>43</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>25</v>
+        <v>162</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>28</v>
@@ -6125,13 +6143,13 @@
         <v>30</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="O73" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="Q73" s="2" t="s">
         <v>32</v>
@@ -6148,8 +6166,8 @@
       <c r="U73" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V73" s="2" t="s">
-        <v>32</v>
+      <c r="V73" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="74">
@@ -6163,22 +6181,22 @@
         <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>189</v>
+        <v>46</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>60</v>
+        <v>162</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>28</v>
@@ -6193,7 +6211,7 @@
         <v>30</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="O74" s="2" t="s">
         <v>32</v>
@@ -6211,13 +6229,13 @@
         <v>32</v>
       </c>
       <c r="T74" s="2" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="U74" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V74" s="2" t="s">
-        <v>32</v>
+      <c r="V74" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="75">
@@ -6231,22 +6249,22 @@
         <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>189</v>
+        <v>39</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>28</v>
@@ -6261,7 +6279,7 @@
         <v>30</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="O75" s="2" t="s">
         <v>32</v>
@@ -6284,8 +6302,8 @@
       <c r="U75" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V75" s="2" t="s">
-        <v>32</v>
+      <c r="V75" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="76">
@@ -6299,22 +6317,22 @@
         <v>22</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>189</v>
+        <v>43</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>55</v>
+        <v>169</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>56</v>
+        <v>170</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>57</v>
+        <v>171</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>57</v>
+        <v>171</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>28</v>
@@ -6329,7 +6347,7 @@
         <v>30</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="O76" s="2" t="s">
         <v>32</v>
@@ -6352,8 +6370,8 @@
       <c r="U76" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V76" s="2" t="s">
-        <v>32</v>
+      <c r="V76" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="77">
@@ -6367,22 +6385,22 @@
         <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>189</v>
+        <v>46</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>28</v>
@@ -6397,7 +6415,7 @@
         <v>30</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O77" s="2" t="s">
         <v>32</v>
@@ -6412,7 +6430,7 @@
         <v>32</v>
       </c>
       <c r="S77" s="2" t="s">
-        <v>194</v>
+        <v>32</v>
       </c>
       <c r="T77" s="2" t="s">
         <v>32</v>
@@ -6420,8 +6438,8 @@
       <c r="U77" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V77" s="2" t="s">
-        <v>32</v>
+      <c r="V77" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="78">
@@ -6435,22 +6453,22 @@
         <v>22</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>196</v>
+        <v>53</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>25</v>
+        <v>169</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>26</v>
+        <v>170</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>27</v>
+        <v>171</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>27</v>
+        <v>171</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>28</v>
@@ -6465,7 +6483,7 @@
         <v>30</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="O78" s="2" t="s">
         <v>32</v>
@@ -6488,8 +6506,8 @@
       <c r="U78" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V78" s="2" t="s">
-        <v>32</v>
+      <c r="V78" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="79">
@@ -6503,22 +6521,22 @@
         <v>22</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>196</v>
+        <v>100</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>60</v>
+        <v>169</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>28</v>
@@ -6533,13 +6551,13 @@
         <v>30</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="O79" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="Q79" s="2" t="s">
         <v>32</v>
@@ -6556,8 +6574,8 @@
       <c r="U79" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V79" s="2" t="s">
-        <v>32</v>
+      <c r="V79" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="80">
@@ -6571,22 +6589,22 @@
         <v>22</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>196</v>
+        <v>102</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>28</v>
@@ -6601,13 +6619,13 @@
         <v>30</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>32</v>
@@ -6624,8 +6642,8 @@
       <c r="U80" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>32</v>
+      <c r="V80" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="81">
@@ -6639,22 +6657,22 @@
         <v>22</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>196</v>
+        <v>36</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>55</v>
+        <v>178</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>56</v>
+        <v>179</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>57</v>
+        <v>180</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>57</v>
+        <v>180</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>28</v>
@@ -6669,7 +6687,7 @@
         <v>30</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O81" s="2" t="s">
         <v>32</v>
@@ -6692,8 +6710,8 @@
       <c r="U81" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V81" s="2" t="s">
-        <v>32</v>
+      <c r="V81" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="82">
@@ -6707,10 +6725,10 @@
         <v>22</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>196</v>
+        <v>39</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>178</v>
@@ -6722,7 +6740,7 @@
         <v>180</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>28</v>
@@ -6743,7 +6761,7 @@
         <v>32</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q82" s="2" t="s">
         <v>32</v>
@@ -6752,7 +6770,7 @@
         <v>32</v>
       </c>
       <c r="S82" s="2" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="T82" s="2" t="s">
         <v>32</v>
@@ -6760,8 +6778,8 @@
       <c r="U82" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V82" s="2" t="s">
-        <v>32</v>
+      <c r="V82" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="83">
@@ -6775,22 +6793,22 @@
         <v>22</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>202</v>
+        <v>43</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>28</v>
@@ -6805,7 +6823,7 @@
         <v>30</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="O83" s="2" t="s">
         <v>32</v>
@@ -6828,8 +6846,8 @@
       <c r="U83" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V83" s="2" t="s">
-        <v>32</v>
+      <c r="V83" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="84">
@@ -6843,22 +6861,22 @@
         <v>22</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>202</v>
+        <v>53</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>60</v>
+        <v>178</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>28</v>
@@ -6873,7 +6891,7 @@
         <v>30</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O84" s="2" t="s">
         <v>32</v>
@@ -6896,8 +6914,8 @@
       <c r="U84" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V84" s="2" t="s">
-        <v>32</v>
+      <c r="V84" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="85">
@@ -6911,22 +6929,22 @@
         <v>22</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>202</v>
+        <v>58</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>47</v>
+        <v>180</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>47</v>
+        <v>180</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>28</v>
@@ -6941,10 +6959,10 @@
         <v>30</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="P85" s="2" t="s">
         <v>32</v>
@@ -6964,8 +6982,8 @@
       <c r="U85" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V85" s="2" t="s">
-        <v>32</v>
+      <c r="V85" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="86">
@@ -6979,22 +6997,22 @@
         <v>22</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>173</v>
+        <v>82</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>202</v>
+        <v>63</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>55</v>
+        <v>178</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>56</v>
+        <v>179</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>57</v>
+        <v>180</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>57</v>
+        <v>180</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>28</v>
@@ -7009,13 +7027,13 @@
         <v>30</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="O86" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P86" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q86" s="2" t="s">
         <v>32</v>
@@ -7032,8 +7050,8 @@
       <c r="U86" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V86" s="2" t="s">
-        <v>32</v>
+      <c r="V86" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="87">
@@ -7047,10 +7065,10 @@
         <v>22</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>202</v>
+        <v>67</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>178</v>
@@ -7062,7 +7080,7 @@
         <v>180</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>28</v>
@@ -7077,7 +7095,7 @@
         <v>30</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="O87" s="2" t="s">
         <v>32</v>
@@ -7092,7 +7110,7 @@
         <v>32</v>
       </c>
       <c r="S87" s="2" t="s">
-        <v>206</v>
+        <v>32</v>
       </c>
       <c r="T87" s="2" t="s">
         <v>32</v>
@@ -7100,8 +7118,8 @@
       <c r="U87" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V87" s="2" t="s">
-        <v>32</v>
+      <c r="V87" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="88">
@@ -7115,22 +7133,22 @@
         <v>22</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>208</v>
+        <v>71</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>28</v>
@@ -7145,13 +7163,13 @@
         <v>30</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="O88" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q88" s="2" t="s">
         <v>32</v>
@@ -7168,8 +7186,8 @@
       <c r="U88" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V88" s="2" t="s">
-        <v>32</v>
+      <c r="V88" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="89">
@@ -7183,22 +7201,22 @@
         <v>22</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>208</v>
+        <v>75</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>60</v>
+        <v>178</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>28</v>
@@ -7213,7 +7231,7 @@
         <v>30</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="O89" s="2" t="s">
         <v>32</v>
@@ -7236,8 +7254,8 @@
       <c r="U89" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V89" s="2" t="s">
-        <v>32</v>
+      <c r="V89" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="90">
@@ -7251,22 +7269,22 @@
         <v>22</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>47</v>
+        <v>180</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>47</v>
+        <v>180</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>28</v>
@@ -7281,7 +7299,7 @@
         <v>30</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="O90" s="2" t="s">
         <v>32</v>
@@ -7304,8 +7322,8 @@
       <c r="U90" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V90" s="2" t="s">
-        <v>32</v>
+      <c r="V90" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="91">
@@ -7319,10 +7337,10 @@
         <v>22</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>208</v>
+        <v>81</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>178</v>
@@ -7334,7 +7352,7 @@
         <v>180</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>28</v>
@@ -7349,7 +7367,7 @@
         <v>30</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="O91" s="2" t="s">
         <v>32</v>
@@ -7364,7 +7382,7 @@
         <v>32</v>
       </c>
       <c r="S91" s="2" t="s">
-        <v>211</v>
+        <v>32</v>
       </c>
       <c r="T91" s="2" t="s">
         <v>32</v>
@@ -7372,8 +7390,8 @@
       <c r="U91" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V91" s="2" t="s">
-        <v>32</v>
+      <c r="V91" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="92">
@@ -7387,22 +7405,22 @@
         <v>22</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>212</v>
+        <v>84</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>28</v>
@@ -7417,7 +7435,7 @@
         <v>30</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="O92" s="2" t="s">
         <v>32</v>
@@ -7440,8 +7458,8 @@
       <c r="U92" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V92" s="2" t="s">
-        <v>32</v>
+      <c r="V92" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="93">
@@ -7455,22 +7473,22 @@
         <v>22</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>71</v>
+        <v>169</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>212</v>
+        <v>87</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>60</v>
+        <v>178</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>28</v>
@@ -7485,7 +7503,7 @@
         <v>30</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O93" s="2" t="s">
         <v>32</v>
@@ -7508,8 +7526,8 @@
       <c r="U93" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V93" s="2" t="s">
-        <v>32</v>
+      <c r="V93" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="94">
@@ -7523,22 +7541,22 @@
         <v>22</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>212</v>
+        <v>90</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>47</v>
+        <v>180</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>47</v>
+        <v>180</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>28</v>
@@ -7553,7 +7571,7 @@
         <v>30</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="O94" s="2" t="s">
         <v>32</v>
@@ -7576,8 +7594,8 @@
       <c r="U94" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V94" s="2" t="s">
-        <v>32</v>
+      <c r="V94" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="95">
@@ -7591,10 +7609,10 @@
         <v>22</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>178</v>
@@ -7606,7 +7624,7 @@
         <v>180</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>28</v>
@@ -7627,7 +7645,7 @@
         <v>32</v>
       </c>
       <c r="P95" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q95" s="2" t="s">
         <v>32</v>
@@ -7636,7 +7654,7 @@
         <v>32</v>
       </c>
       <c r="S95" s="2" t="s">
-        <v>215</v>
+        <v>32</v>
       </c>
       <c r="T95" s="2" t="s">
         <v>32</v>
@@ -7644,8 +7662,8 @@
       <c r="U95" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V95" s="2" t="s">
-        <v>32</v>
+      <c r="V95" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="96">
@@ -7659,22 +7677,22 @@
         <v>22</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>216</v>
+        <v>24</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>26</v>
+        <v>191</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>28</v>
@@ -7689,7 +7707,7 @@
         <v>30</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c r="O96" s="2" t="s">
         <v>32</v>
@@ -7712,8 +7730,8 @@
       <c r="U96" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V96" s="2" t="s">
-        <v>32</v>
+      <c r="V96" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="97">
@@ -7727,22 +7745,22 @@
         <v>22</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>216</v>
+        <v>34</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>28</v>
@@ -7757,7 +7775,7 @@
         <v>30</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>74</v>
+        <v>193</v>
       </c>
       <c r="O97" s="2" t="s">
         <v>32</v>
@@ -7780,8 +7798,8 @@
       <c r="U97" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V97" s="2" t="s">
-        <v>32</v>
+      <c r="V97" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="98">
@@ -7795,22 +7813,22 @@
         <v>22</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>72</v>
+        <v>191</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>73</v>
+        <v>192</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>73</v>
+        <v>192</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>28</v>
@@ -7825,13 +7843,13 @@
         <v>30</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>32</v>
+        <v>196</v>
       </c>
       <c r="O98" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P98" s="2" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="Q98" s="2" t="s">
         <v>32</v>
@@ -7848,8 +7866,8 @@
       <c r="U98" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V98" s="2" t="s">
-        <v>32</v>
+      <c r="V98" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="99">
@@ -7863,22 +7881,22 @@
         <v>22</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>216</v>
+        <v>39</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>28</v>
@@ -7893,13 +7911,13 @@
         <v>30</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>32</v>
+        <v>198</v>
       </c>
       <c r="O99" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P99" s="2" t="s">
-        <v>32</v>
+        <v>199</v>
       </c>
       <c r="Q99" s="2" t="s">
         <v>32</v>
@@ -7908,7 +7926,7 @@
         <v>32</v>
       </c>
       <c r="S99" s="2" t="s">
-        <v>220</v>
+        <v>32</v>
       </c>
       <c r="T99" s="2" t="s">
         <v>32</v>
@@ -7916,8 +7934,8 @@
       <c r="U99" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V99" s="2" t="s">
-        <v>32</v>
+      <c r="V99" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="100">
@@ -7931,22 +7949,22 @@
         <v>22</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>222</v>
+        <v>43</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>26</v>
+        <v>191</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>28</v>
@@ -7961,13 +7979,13 @@
         <v>30</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="O100" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P100" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="Q100" s="2" t="s">
         <v>32</v>
@@ -7984,8 +8002,8 @@
       <c r="U100" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V100" s="2" t="s">
-        <v>32</v>
+      <c r="V100" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="101">
@@ -7999,22 +8017,22 @@
         <v>22</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>222</v>
+        <v>46</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>28</v>
@@ -8029,13 +8047,13 @@
         <v>30</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>49</v>
+        <v>203</v>
       </c>
       <c r="O101" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P101" s="2" t="s">
-        <v>32</v>
+        <v>204</v>
       </c>
       <c r="Q101" s="2" t="s">
         <v>32</v>
@@ -8052,8 +8070,8 @@
       <c r="U101" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V101" s="2" t="s">
-        <v>32</v>
+      <c r="V101" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="102">
@@ -8067,22 +8085,22 @@
         <v>22</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>222</v>
+        <v>49</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>72</v>
+        <v>191</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>73</v>
+        <v>192</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>73</v>
+        <v>192</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>28</v>
@@ -8097,13 +8115,13 @@
         <v>30</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>32</v>
+        <v>206</v>
       </c>
       <c r="O102" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P102" s="2" t="s">
-        <v>49</v>
+        <v>207</v>
       </c>
       <c r="Q102" s="2" t="s">
         <v>32</v>
@@ -8120,8 +8138,8 @@
       <c r="U102" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V102" s="2" t="s">
-        <v>32</v>
+      <c r="V102" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="103">
@@ -8135,22 +8153,22 @@
         <v>22</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>222</v>
+        <v>53</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>28</v>
@@ -8165,13 +8183,13 @@
         <v>30</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>32</v>
+        <v>209</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="P103" s="2" t="s">
-        <v>32</v>
+        <v>211</v>
       </c>
       <c r="Q103" s="2" t="s">
         <v>32</v>
@@ -8180,7 +8198,7 @@
         <v>32</v>
       </c>
       <c r="S103" s="2" t="s">
-        <v>226</v>
+        <v>32</v>
       </c>
       <c r="T103" s="2" t="s">
         <v>32</v>
@@ -8188,8 +8206,8 @@
       <c r="U103" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V103" s="2" t="s">
-        <v>32</v>
+      <c r="V103" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="104">
@@ -8203,22 +8221,22 @@
         <v>22</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>228</v>
+        <v>58</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>26</v>
+        <v>191</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>28</v>
@@ -8233,13 +8251,13 @@
         <v>30</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>32</v>
+        <v>214</v>
       </c>
       <c r="P104" s="2" t="s">
-        <v>32</v>
+        <v>215</v>
       </c>
       <c r="Q104" s="2" t="s">
         <v>32</v>
@@ -8256,8 +8274,8 @@
       <c r="U104" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V104" s="2" t="s">
-        <v>32</v>
+      <c r="V104" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="105">
@@ -8271,22 +8289,22 @@
         <v>22</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>228</v>
+        <v>63</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>28</v>
@@ -8301,13 +8319,13 @@
         <v>30</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>49</v>
+        <v>217</v>
       </c>
       <c r="O105" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P105" s="2" t="s">
-        <v>32</v>
+        <v>218</v>
       </c>
       <c r="Q105" s="2" t="s">
         <v>32</v>
@@ -8324,8 +8342,8 @@
       <c r="U105" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V105" s="2" t="s">
-        <v>32</v>
+      <c r="V105" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="106">
@@ -8339,22 +8357,22 @@
         <v>22</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>228</v>
+        <v>67</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>28</v>
@@ -8369,13 +8387,13 @@
         <v>30</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>32</v>
+        <v>220</v>
       </c>
       <c r="O106" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P106" s="2" t="s">
-        <v>32</v>
+        <v>221</v>
       </c>
       <c r="Q106" s="2" t="s">
         <v>32</v>
@@ -8384,7 +8402,7 @@
         <v>32</v>
       </c>
       <c r="S106" s="2" t="s">
-        <v>231</v>
+        <v>32</v>
       </c>
       <c r="T106" s="2" t="s">
         <v>32</v>
@@ -8392,8 +8410,8 @@
       <c r="U106" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V106" s="2" t="s">
-        <v>32</v>
+      <c r="V106" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="107">
@@ -8407,22 +8425,22 @@
         <v>22</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>233</v>
+        <v>71</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>26</v>
+        <v>191</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>28</v>
@@ -8437,13 +8455,13 @@
         <v>30</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>53</v>
+        <v>223</v>
       </c>
       <c r="O107" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P107" s="2" t="s">
-        <v>32</v>
+        <v>149</v>
       </c>
       <c r="Q107" s="2" t="s">
         <v>32</v>
@@ -8460,8 +8478,8 @@
       <c r="U107" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V107" s="2" t="s">
-        <v>32</v>
+      <c r="V107" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="108">
@@ -8475,22 +8493,22 @@
         <v>22</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>233</v>
+        <v>75</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>28</v>
@@ -8505,13 +8523,13 @@
         <v>30</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>54</v>
+        <v>225</v>
       </c>
       <c r="O108" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P108" s="2" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="Q108" s="2" t="s">
         <v>32</v>
@@ -8528,8 +8546,8 @@
       <c r="U108" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V108" s="2" t="s">
-        <v>32</v>
+      <c r="V108" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="109">
@@ -8543,22 +8561,22 @@
         <v>22</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>233</v>
+        <v>78</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>28</v>
@@ -8579,7 +8597,7 @@
         <v>32</v>
       </c>
       <c r="P109" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="Q109" s="2" t="s">
         <v>32</v>
@@ -8588,7 +8606,7 @@
         <v>32</v>
       </c>
       <c r="S109" s="2" t="s">
-        <v>236</v>
+        <v>32</v>
       </c>
       <c r="T109" s="2" t="s">
         <v>32</v>
@@ -8596,8 +8614,8 @@
       <c r="U109" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V109" s="2" t="s">
-        <v>32</v>
+      <c r="V109" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="110">
@@ -8611,22 +8629,22 @@
         <v>22</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>238</v>
+        <v>81</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>25</v>
+        <v>228</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>27</v>
+        <v>230</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>27</v>
+        <v>231</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>28</v>
@@ -8641,7 +8659,7 @@
         <v>30</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="O110" s="2" t="s">
         <v>32</v>
@@ -8656,7 +8674,7 @@
         <v>32</v>
       </c>
       <c r="S110" s="2" t="s">
-        <v>32</v>
+        <v>232</v>
       </c>
       <c r="T110" s="2" t="s">
         <v>32</v>
@@ -8664,8 +8682,8 @@
       <c r="U110" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V110" s="2" t="s">
-        <v>32</v>
+      <c r="V110" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="111">
@@ -8679,22 +8697,22 @@
         <v>22</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>238</v>
+        <v>84</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>46</v>
+        <v>229</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>47</v>
+        <v>231</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>28</v>
@@ -8709,7 +8727,7 @@
         <v>30</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="O111" s="2" t="s">
         <v>32</v>
@@ -8724,7 +8742,7 @@
         <v>32</v>
       </c>
       <c r="S111" s="2" t="s">
-        <v>32</v>
+        <v>232</v>
       </c>
       <c r="T111" s="2" t="s">
         <v>32</v>
@@ -8732,8 +8750,8 @@
       <c r="U111" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V111" s="2" t="s">
-        <v>32</v>
+      <c r="V111" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="112">
@@ -8747,22 +8765,22 @@
         <v>22</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>137</v>
+        <v>218</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>238</v>
+        <v>87</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>178</v>
+        <v>228</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>181</v>
+        <v>231</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>28</v>
@@ -8792,7 +8810,7 @@
         <v>32</v>
       </c>
       <c r="S112" s="2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="T112" s="2" t="s">
         <v>32</v>
@@ -8800,8 +8818,8 @@
       <c r="U112" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V112" s="2" t="s">
-        <v>32</v>
+      <c r="V112" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="113">
@@ -8815,22 +8833,22 @@
         <v>22</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>242</v>
+        <v>90</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>25</v>
+        <v>228</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>27</v>
+        <v>230</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>27</v>
+        <v>231</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>28</v>
@@ -8845,7 +8863,7 @@
         <v>30</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="O113" s="2" t="s">
         <v>32</v>
@@ -8860,7 +8878,7 @@
         <v>32</v>
       </c>
       <c r="S113" s="2" t="s">
-        <v>32</v>
+        <v>196</v>
       </c>
       <c r="T113" s="2" t="s">
         <v>32</v>
@@ -8868,8 +8886,8 @@
       <c r="U113" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V113" s="2" t="s">
-        <v>32</v>
+      <c r="V113" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="114">
@@ -8883,22 +8901,22 @@
         <v>22</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>242</v>
+        <v>93</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>46</v>
+        <v>229</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>47</v>
+        <v>231</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>28</v>
@@ -8913,7 +8931,7 @@
         <v>30</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="O114" s="2" t="s">
         <v>32</v>
@@ -8928,7 +8946,7 @@
         <v>32</v>
       </c>
       <c r="S114" s="2" t="s">
-        <v>32</v>
+        <v>237</v>
       </c>
       <c r="T114" s="2" t="s">
         <v>32</v>
@@ -8936,8 +8954,8 @@
       <c r="U114" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V114" s="2" t="s">
-        <v>32</v>
+      <c r="V114" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="115">
@@ -8951,22 +8969,22 @@
         <v>22</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>242</v>
+        <v>96</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>178</v>
+        <v>228</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>181</v>
+        <v>231</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>28</v>
@@ -8996,7 +9014,7 @@
         <v>32</v>
       </c>
       <c r="S115" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="T115" s="2" t="s">
         <v>32</v>
@@ -9004,8 +9022,8 @@
       <c r="U115" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V115" s="2" t="s">
-        <v>32</v>
+      <c r="V115" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="116">
@@ -9019,22 +9037,22 @@
         <v>22</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>247</v>
+        <v>98</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>25</v>
+        <v>228</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>27</v>
+        <v>230</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>27</v>
+        <v>231</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>28</v>
@@ -9049,7 +9067,7 @@
         <v>30</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="O116" s="2" t="s">
         <v>32</v>
@@ -9064,7 +9082,7 @@
         <v>32</v>
       </c>
       <c r="S116" s="2" t="s">
-        <v>32</v>
+        <v>241</v>
       </c>
       <c r="T116" s="2" t="s">
         <v>32</v>
@@ -9072,8 +9090,8 @@
       <c r="U116" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V116" s="2" t="s">
-        <v>32</v>
+      <c r="V116" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="117">
@@ -9087,22 +9105,22 @@
         <v>22</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>247</v>
+        <v>100</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>46</v>
+        <v>229</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>47</v>
+        <v>231</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>28</v>
@@ -9117,7 +9135,7 @@
         <v>30</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="O117" s="2" t="s">
         <v>32</v>
@@ -9132,7 +9150,7 @@
         <v>32</v>
       </c>
       <c r="S117" s="2" t="s">
-        <v>32</v>
+        <v>243</v>
       </c>
       <c r="T117" s="2" t="s">
         <v>32</v>
@@ -9140,8 +9158,8 @@
       <c r="U117" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V117" s="2" t="s">
-        <v>32</v>
+      <c r="V117" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="118">
@@ -9155,22 +9173,22 @@
         <v>22</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>247</v>
+        <v>102</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>178</v>
+        <v>228</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>181</v>
+        <v>231</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>28</v>
@@ -9200,7 +9218,7 @@
         <v>32</v>
       </c>
       <c r="S118" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="T118" s="2" t="s">
         <v>32</v>
@@ -9208,8 +9226,8 @@
       <c r="U118" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V118" s="2" t="s">
-        <v>32</v>
+      <c r="V118" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="119">
@@ -9223,22 +9241,22 @@
         <v>22</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>252</v>
+        <v>104</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>25</v>
+        <v>228</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>27</v>
+        <v>230</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>27</v>
+        <v>231</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>28</v>
@@ -9253,7 +9271,7 @@
         <v>30</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="O119" s="2" t="s">
         <v>32</v>
@@ -9268,7 +9286,7 @@
         <v>32</v>
       </c>
       <c r="S119" s="2" t="s">
-        <v>32</v>
+        <v>247</v>
       </c>
       <c r="T119" s="2" t="s">
         <v>32</v>
@@ -9276,8 +9294,8 @@
       <c r="U119" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V119" s="2" t="s">
-        <v>32</v>
+      <c r="V119" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="120">
@@ -9291,22 +9309,22 @@
         <v>22</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>252</v>
+        <v>106</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>46</v>
+        <v>229</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>47</v>
+        <v>231</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>28</v>
@@ -9321,7 +9339,7 @@
         <v>30</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="O120" s="2" t="s">
         <v>32</v>
@@ -9336,7 +9354,7 @@
         <v>32</v>
       </c>
       <c r="S120" s="2" t="s">
-        <v>32</v>
+        <v>249</v>
       </c>
       <c r="T120" s="2" t="s">
         <v>32</v>
@@ -9344,8 +9362,8 @@
       <c r="U120" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V120" s="2" t="s">
-        <v>32</v>
+      <c r="V120" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="121">
@@ -9359,22 +9377,22 @@
         <v>22</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>252</v>
+        <v>108</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>178</v>
+        <v>228</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>181</v>
+        <v>231</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>28</v>
@@ -9404,7 +9422,7 @@
         <v>32</v>
       </c>
       <c r="S121" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="T121" s="2" t="s">
         <v>32</v>
@@ -9412,8 +9430,8 @@
       <c r="U121" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V121" s="2" t="s">
-        <v>32</v>
+      <c r="V121" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="122">
@@ -9427,22 +9445,22 @@
         <v>22</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>256</v>
+        <v>110</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>25</v>
+        <v>228</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>27</v>
+        <v>230</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>27</v>
+        <v>231</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>28</v>
@@ -9457,7 +9475,7 @@
         <v>30</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="O122" s="2" t="s">
         <v>32</v>
@@ -9472,7 +9490,7 @@
         <v>32</v>
       </c>
       <c r="S122" s="2" t="s">
-        <v>32</v>
+        <v>252</v>
       </c>
       <c r="T122" s="2" t="s">
         <v>32</v>
@@ -9480,8 +9498,8 @@
       <c r="U122" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V122" s="2" t="s">
-        <v>32</v>
+      <c r="V122" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="123">
@@ -9495,22 +9513,22 @@
         <v>22</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>256</v>
+        <v>112</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>46</v>
+        <v>229</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>47</v>
+        <v>231</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>28</v>
@@ -9525,7 +9543,7 @@
         <v>30</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="O123" s="2" t="s">
         <v>32</v>
@@ -9540,7 +9558,7 @@
         <v>32</v>
       </c>
       <c r="S123" s="2" t="s">
-        <v>32</v>
+        <v>254</v>
       </c>
       <c r="T123" s="2" t="s">
         <v>32</v>
@@ -9548,8 +9566,8 @@
       <c r="U123" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V123" s="2" t="s">
-        <v>32</v>
+      <c r="V123" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="124">
@@ -9563,61 +9581,265 @@
         <v>22</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M124" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N124" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O124" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P124" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q124" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R124" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S124" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="T124" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U124" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V124" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M125" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N125" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O125" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P125" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q125" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R125" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S125" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="J124" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K124" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L124" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M124" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N124" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O124" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P124" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q124" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R124" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S124" s="2" t="s">
+      <c r="T125" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U125" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V125" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="T124" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U124" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V124" s="2" t="s">
-        <v>32</v>
+      <c r="E126" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M126" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N126" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O126" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P126" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q126" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R126" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S126" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="T126" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U126" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V126" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M127" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N127" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O127" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P127" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q127" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R127" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S127" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T127" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U127" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V127" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-TKM.xlsx
+++ b/Excel-XLSX/UN-TKM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="267">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Om7d2Y</t>
+    <t>8DWxu2</t>
   </si>
   <si>
     <t>1993</t>
@@ -366,6 +366,9 @@
     <t>2023</t>
   </si>
   <si>
+    <t>3609</t>
+  </si>
+  <si>
     <t>32</t>
   </si>
   <si>
@@ -798,7 +801,7 @@
     <t>125</t>
   </si>
   <si>
-    <t>3351</t>
+    <t>3583</t>
   </si>
   <si>
     <t>126</t>
@@ -1338,8 +1341,8 @@
       <c r="U2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>33</v>
+      <c r="V2" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -1406,8 +1409,8 @@
       <c r="U3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>33</v>
+      <c r="V3" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -1474,8 +1477,8 @@
       <c r="U4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>33</v>
+      <c r="V4" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -1542,8 +1545,8 @@
       <c r="U5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>33</v>
+      <c r="V5" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -1610,8 +1613,8 @@
       <c r="U6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>33</v>
+      <c r="V6" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -1678,8 +1681,8 @@
       <c r="U7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>33</v>
+      <c r="V7" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -1746,8 +1749,8 @@
       <c r="U8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>33</v>
+      <c r="V8" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -1814,8 +1817,8 @@
       <c r="U9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>33</v>
+      <c r="V9" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -1882,8 +1885,8 @@
       <c r="U10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>33</v>
+      <c r="V10" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -1950,8 +1953,8 @@
       <c r="U11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>33</v>
+      <c r="V11" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -2018,8 +2021,8 @@
       <c r="U12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>33</v>
+      <c r="V12" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -2086,8 +2089,8 @@
       <c r="U13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>33</v>
+      <c r="V13" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -2154,8 +2157,8 @@
       <c r="U14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>33</v>
+      <c r="V14" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -2222,8 +2225,8 @@
       <c r="U15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>33</v>
+      <c r="V15" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -2290,8 +2293,8 @@
       <c r="U16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>33</v>
+      <c r="V16" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -2358,8 +2361,8 @@
       <c r="U17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>33</v>
+      <c r="V17" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -2426,8 +2429,8 @@
       <c r="U18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>33</v>
+      <c r="V18" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -2494,8 +2497,8 @@
       <c r="U19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>33</v>
+      <c r="V19" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20">
@@ -2562,8 +2565,8 @@
       <c r="U20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>33</v>
+      <c r="V20" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -2630,8 +2633,8 @@
       <c r="U21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>33</v>
+      <c r="V21" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22">
@@ -2698,8 +2701,8 @@
       <c r="U22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>33</v>
+      <c r="V22" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23">
@@ -2766,8 +2769,8 @@
       <c r="U23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>33</v>
+      <c r="V23" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24">
@@ -2834,8 +2837,8 @@
       <c r="U24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>33</v>
+      <c r="V24" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -2902,8 +2905,8 @@
       <c r="U25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>33</v>
+      <c r="V25" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -2970,8 +2973,8 @@
       <c r="U26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V26" s="1" t="s">
-        <v>33</v>
+      <c r="V26" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27">
@@ -3038,8 +3041,8 @@
       <c r="U27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>33</v>
+      <c r="V27" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="28">
@@ -3106,8 +3109,8 @@
       <c r="U28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>33</v>
+      <c r="V28" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29">
@@ -3174,8 +3177,8 @@
       <c r="U29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>33</v>
+      <c r="V29" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30">
@@ -3242,8 +3245,8 @@
       <c r="U30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>33</v>
+      <c r="V30" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="31">
@@ -3355,7 +3358,7 @@
         <v>30</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>32</v>
@@ -3393,7 +3396,7 @@
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>75</v>
@@ -3402,13 +3405,13 @@
         <v>62</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>28</v>
@@ -3446,8 +3449,8 @@
       <c r="U33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>33</v>
+      <c r="V33" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34">
@@ -3470,13 +3473,13 @@
         <v>62</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>28</v>
@@ -3514,8 +3517,8 @@
       <c r="U34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>33</v>
+      <c r="V34" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="35">
@@ -3529,7 +3532,7 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>81</v>
@@ -3538,13 +3541,13 @@
         <v>62</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>28</v>
@@ -3582,8 +3585,8 @@
       <c r="U35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>33</v>
+      <c r="V35" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="36">
@@ -3597,7 +3600,7 @@
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>84</v>
@@ -3606,13 +3609,13 @@
         <v>62</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>28</v>
@@ -3650,8 +3653,8 @@
       <c r="U36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>33</v>
+      <c r="V36" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="37">
@@ -3665,7 +3668,7 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>87</v>
@@ -3674,13 +3677,13 @@
         <v>62</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>28</v>
@@ -3718,8 +3721,8 @@
       <c r="U37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>33</v>
+      <c r="V37" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="38">
@@ -3733,7 +3736,7 @@
         <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>90</v>
@@ -3742,13 +3745,13 @@
         <v>62</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>28</v>
@@ -3786,8 +3789,8 @@
       <c r="U38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>33</v>
+      <c r="V38" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="39">
@@ -3810,13 +3813,13 @@
         <v>62</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>28</v>
@@ -3854,8 +3857,8 @@
       <c r="U39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V39" s="1" t="s">
-        <v>33</v>
+      <c r="V39" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="40">
@@ -3869,7 +3872,7 @@
         <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>96</v>
@@ -3878,13 +3881,13 @@
         <v>62</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>28</v>
@@ -3922,8 +3925,8 @@
       <c r="U40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V40" s="1" t="s">
-        <v>33</v>
+      <c r="V40" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="41">
@@ -3937,7 +3940,7 @@
         <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>98</v>
@@ -3946,13 +3949,13 @@
         <v>62</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>28</v>
@@ -3990,8 +3993,8 @@
       <c r="U41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V41" s="1" t="s">
-        <v>33</v>
+      <c r="V41" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="42">
@@ -4005,7 +4008,7 @@
         <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>36</v>
@@ -4014,13 +4017,13 @@
         <v>74</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>28</v>
@@ -4035,7 +4038,7 @@
         <v>30</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>32</v>
@@ -4058,8 +4061,8 @@
       <c r="U42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V42" s="1" t="s">
-        <v>33</v>
+      <c r="V42" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="43">
@@ -4073,7 +4076,7 @@
         <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>39</v>
@@ -4082,13 +4085,13 @@
         <v>74</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>28</v>
@@ -4103,7 +4106,7 @@
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>32</v>
@@ -4126,8 +4129,8 @@
       <c r="U43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V43" s="1" t="s">
-        <v>33</v>
+      <c r="V43" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="44">
@@ -4141,7 +4144,7 @@
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>43</v>
@@ -4150,13 +4153,13 @@
         <v>74</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>28</v>
@@ -4171,7 +4174,7 @@
         <v>30</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O44" s="2" t="s">
         <v>32</v>
@@ -4194,8 +4197,8 @@
       <c r="U44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V44" s="1" t="s">
-        <v>33</v>
+      <c r="V44" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="45">
@@ -4209,7 +4212,7 @@
         <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>46</v>
@@ -4218,13 +4221,13 @@
         <v>74</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>28</v>
@@ -4262,8 +4265,8 @@
       <c r="U45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V45" s="1" t="s">
-        <v>33</v>
+      <c r="V45" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="46">
@@ -4277,7 +4280,7 @@
         <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>49</v>
@@ -4286,13 +4289,13 @@
         <v>74</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>28</v>
@@ -4330,8 +4333,8 @@
       <c r="U46" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V46" s="1" t="s">
-        <v>33</v>
+      <c r="V46" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="47">
@@ -4354,13 +4357,13 @@
         <v>74</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>28</v>
@@ -4375,7 +4378,7 @@
         <v>30</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O47" s="2" t="s">
         <v>60</v>
@@ -4398,8 +4401,8 @@
       <c r="U47" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V47" s="1" t="s">
-        <v>33</v>
+      <c r="V47" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="48">
@@ -4413,7 +4416,7 @@
         <v>22</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>58</v>
@@ -4422,13 +4425,13 @@
         <v>74</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>28</v>
@@ -4443,10 +4446,10 @@
         <v>30</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P48" s="2" t="s">
         <v>86</v>
@@ -4466,8 +4469,8 @@
       <c r="U48" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V48" s="1" t="s">
-        <v>33</v>
+      <c r="V48" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="49">
@@ -4481,7 +4484,7 @@
         <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>63</v>
@@ -4490,13 +4493,13 @@
         <v>74</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>28</v>
@@ -4511,7 +4514,7 @@
         <v>30</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O49" s="2" t="s">
         <v>32</v>
@@ -4534,8 +4537,8 @@
       <c r="U49" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V49" s="1" t="s">
-        <v>33</v>
+      <c r="V49" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="50">
@@ -4549,7 +4552,7 @@
         <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>67</v>
@@ -4558,13 +4561,13 @@
         <v>74</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>28</v>
@@ -4579,7 +4582,7 @@
         <v>30</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O50" s="2" t="s">
         <v>42</v>
@@ -4602,8 +4605,8 @@
       <c r="U50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V50" s="1" t="s">
-        <v>33</v>
+      <c r="V50" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="51">
@@ -4617,7 +4620,7 @@
         <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>71</v>
@@ -4626,13 +4629,13 @@
         <v>74</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>28</v>
@@ -4647,7 +4650,7 @@
         <v>30</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O51" s="2" t="s">
         <v>32</v>
@@ -4670,8 +4673,8 @@
       <c r="U51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V51" s="1" t="s">
-        <v>33</v>
+      <c r="V51" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="52">
@@ -4685,7 +4688,7 @@
         <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>75</v>
@@ -4694,13 +4697,13 @@
         <v>74</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>28</v>
@@ -4738,8 +4741,8 @@
       <c r="U52" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V52" s="1" t="s">
-        <v>33</v>
+      <c r="V52" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="53">
@@ -4753,7 +4756,7 @@
         <v>22</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>78</v>
@@ -4762,13 +4765,13 @@
         <v>74</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>28</v>
@@ -4806,8 +4809,8 @@
       <c r="U53" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="1" t="s">
-        <v>33</v>
+      <c r="V53" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="54">
@@ -4821,7 +4824,7 @@
         <v>22</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>81</v>
@@ -4830,13 +4833,13 @@
         <v>74</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>28</v>
@@ -4874,8 +4877,8 @@
       <c r="U54" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V54" s="1" t="s">
-        <v>33</v>
+      <c r="V54" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="55">
@@ -4889,7 +4892,7 @@
         <v>22</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>84</v>
@@ -4898,13 +4901,13 @@
         <v>74</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>28</v>
@@ -4942,8 +4945,8 @@
       <c r="U55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V55" s="1" t="s">
-        <v>33</v>
+      <c r="V55" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="56">
@@ -4957,7 +4960,7 @@
         <v>22</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>87</v>
@@ -4966,13 +4969,13 @@
         <v>74</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>28</v>
@@ -5010,8 +5013,8 @@
       <c r="U56" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V56" s="1" t="s">
-        <v>33</v>
+      <c r="V56" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="57">
@@ -5025,7 +5028,7 @@
         <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>90</v>
@@ -5034,13 +5037,13 @@
         <v>74</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>28</v>
@@ -5078,8 +5081,8 @@
       <c r="U57" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V57" s="1" t="s">
-        <v>33</v>
+      <c r="V57" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="58">
@@ -5093,7 +5096,7 @@
         <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>93</v>
@@ -5102,13 +5105,13 @@
         <v>74</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>28</v>
@@ -5146,8 +5149,8 @@
       <c r="U58" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V58" s="1" t="s">
-        <v>33</v>
+      <c r="V58" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="59">
@@ -5161,7 +5164,7 @@
         <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>96</v>
@@ -5170,13 +5173,13 @@
         <v>74</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>28</v>
@@ -5214,8 +5217,8 @@
       <c r="U59" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V59" s="1" t="s">
-        <v>33</v>
+      <c r="V59" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="60">
@@ -5229,7 +5232,7 @@
         <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>98</v>
@@ -5238,13 +5241,13 @@
         <v>74</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>28</v>
@@ -5282,8 +5285,8 @@
       <c r="U60" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V60" s="1" t="s">
-        <v>33</v>
+      <c r="V60" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="61">
@@ -5297,7 +5300,7 @@
         <v>22</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>100</v>
@@ -5306,13 +5309,13 @@
         <v>74</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>28</v>
@@ -5350,8 +5353,8 @@
       <c r="U61" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V61" s="1" t="s">
-        <v>33</v>
+      <c r="V61" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="62">
@@ -5365,7 +5368,7 @@
         <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>102</v>
@@ -5374,13 +5377,13 @@
         <v>74</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>28</v>
@@ -5418,8 +5421,8 @@
       <c r="U62" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V62" s="1" t="s">
-        <v>33</v>
+      <c r="V62" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="63">
@@ -5433,7 +5436,7 @@
         <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>104</v>
@@ -5442,13 +5445,13 @@
         <v>74</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>28</v>
@@ -5486,8 +5489,8 @@
       <c r="U63" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V63" s="1" t="s">
-        <v>33</v>
+      <c r="V63" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="64">
@@ -5501,7 +5504,7 @@
         <v>22</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>106</v>
@@ -5510,13 +5513,13 @@
         <v>74</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>28</v>
@@ -5554,8 +5557,8 @@
       <c r="U64" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V64" s="1" t="s">
-        <v>33</v>
+      <c r="V64" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="65">
@@ -5569,7 +5572,7 @@
         <v>22</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>108</v>
@@ -5578,13 +5581,13 @@
         <v>74</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>28</v>
@@ -5622,8 +5625,8 @@
       <c r="U65" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V65" s="1" t="s">
-        <v>33</v>
+      <c r="V65" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="66">
@@ -5637,7 +5640,7 @@
         <v>22</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>110</v>
@@ -5646,13 +5649,13 @@
         <v>74</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>28</v>
@@ -5690,8 +5693,8 @@
       <c r="U66" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V66" s="1" t="s">
-        <v>33</v>
+      <c r="V66" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="67">
@@ -5705,7 +5708,7 @@
         <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>112</v>
@@ -5714,13 +5717,13 @@
         <v>74</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>28</v>
@@ -5758,8 +5761,8 @@
       <c r="U67" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V67" s="1" t="s">
-        <v>33</v>
+      <c r="V67" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="68">
@@ -5773,7 +5776,7 @@
         <v>22</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>113</v>
@@ -5782,13 +5785,13 @@
         <v>74</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>28</v>
@@ -5826,8 +5829,8 @@
       <c r="U68" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V68" s="1" t="s">
-        <v>33</v>
+      <c r="V68" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="69">
@@ -5850,13 +5853,13 @@
         <v>74</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>28</v>
@@ -5909,7 +5912,7 @@
         <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>115</v>
@@ -5918,13 +5921,13 @@
         <v>74</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>28</v>
@@ -5977,22 +5980,22 @@
         <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>28</v>
@@ -6030,8 +6033,8 @@
       <c r="U71" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V71" s="1" t="s">
-        <v>33</v>
+      <c r="V71" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="72">
@@ -6045,22 +6048,22 @@
         <v>22</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>28</v>
@@ -6098,8 +6101,8 @@
       <c r="U72" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V72" s="1" t="s">
-        <v>33</v>
+      <c r="V72" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="73">
@@ -6113,22 +6116,22 @@
         <v>22</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>28</v>
@@ -6166,8 +6169,8 @@
       <c r="U73" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V73" s="1" t="s">
-        <v>33</v>
+      <c r="V73" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="74">
@@ -6181,22 +6184,22 @@
         <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>28</v>
@@ -6234,8 +6237,8 @@
       <c r="U74" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V74" s="1" t="s">
-        <v>33</v>
+      <c r="V74" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="75">
@@ -6249,22 +6252,22 @@
         <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>28</v>
@@ -6302,8 +6305,8 @@
       <c r="U75" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V75" s="1" t="s">
-        <v>33</v>
+      <c r="V75" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="76">
@@ -6317,22 +6320,22 @@
         <v>22</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>28</v>
@@ -6370,8 +6373,8 @@
       <c r="U76" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V76" s="1" t="s">
-        <v>33</v>
+      <c r="V76" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="77">
@@ -6385,22 +6388,22 @@
         <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>28</v>
@@ -6438,8 +6441,8 @@
       <c r="U77" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V77" s="1" t="s">
-        <v>33</v>
+      <c r="V77" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="78">
@@ -6453,22 +6456,22 @@
         <v>22</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>28</v>
@@ -6506,8 +6509,8 @@
       <c r="U78" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V78" s="1" t="s">
-        <v>33</v>
+      <c r="V78" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="79">
@@ -6521,22 +6524,22 @@
         <v>22</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>28</v>
@@ -6574,8 +6577,8 @@
       <c r="U79" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V79" s="1" t="s">
-        <v>33</v>
+      <c r="V79" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="80">
@@ -6589,22 +6592,22 @@
         <v>22</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>102</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>28</v>
@@ -6642,8 +6645,8 @@
       <c r="U80" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V80" s="1" t="s">
-        <v>33</v>
+      <c r="V80" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="81">
@@ -6657,22 +6660,22 @@
         <v>22</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>28</v>
@@ -6710,8 +6713,8 @@
       <c r="U81" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V81" s="1" t="s">
-        <v>33</v>
+      <c r="V81" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="82">
@@ -6725,22 +6728,22 @@
         <v>22</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>28</v>
@@ -6778,8 +6781,8 @@
       <c r="U82" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V82" s="1" t="s">
-        <v>33</v>
+      <c r="V82" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="83">
@@ -6793,22 +6796,22 @@
         <v>22</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>28</v>
@@ -6846,8 +6849,8 @@
       <c r="U83" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V83" s="1" t="s">
-        <v>33</v>
+      <c r="V83" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="84">
@@ -6861,22 +6864,22 @@
         <v>22</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>28</v>
@@ -6914,8 +6917,8 @@
       <c r="U84" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V84" s="1" t="s">
-        <v>33</v>
+      <c r="V84" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="85">
@@ -6929,22 +6932,22 @@
         <v>22</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>28</v>
@@ -6982,8 +6985,8 @@
       <c r="U85" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V85" s="1" t="s">
-        <v>33</v>
+      <c r="V85" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="86">
@@ -7003,16 +7006,16 @@
         <v>63</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>28</v>
@@ -7050,8 +7053,8 @@
       <c r="U86" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V86" s="1" t="s">
-        <v>33</v>
+      <c r="V86" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="87">
@@ -7065,22 +7068,22 @@
         <v>22</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>28</v>
@@ -7118,8 +7121,8 @@
       <c r="U87" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V87" s="1" t="s">
-        <v>33</v>
+      <c r="V87" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="88">
@@ -7133,22 +7136,22 @@
         <v>22</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>28</v>
@@ -7186,8 +7189,8 @@
       <c r="U88" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V88" s="1" t="s">
-        <v>33</v>
+      <c r="V88" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="89">
@@ -7201,22 +7204,22 @@
         <v>22</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>28</v>
@@ -7254,8 +7257,8 @@
       <c r="U89" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V89" s="1" t="s">
-        <v>33</v>
+      <c r="V89" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="90">
@@ -7275,16 +7278,16 @@
         <v>78</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>28</v>
@@ -7322,8 +7325,8 @@
       <c r="U90" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V90" s="1" t="s">
-        <v>33</v>
+      <c r="V90" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="91">
@@ -7337,22 +7340,22 @@
         <v>22</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>28</v>
@@ -7390,8 +7393,8 @@
       <c r="U91" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V91" s="1" t="s">
-        <v>33</v>
+      <c r="V91" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="92">
@@ -7405,22 +7408,22 @@
         <v>22</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>28</v>
@@ -7458,8 +7461,8 @@
       <c r="U92" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V92" s="1" t="s">
-        <v>33</v>
+      <c r="V92" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="93">
@@ -7473,22 +7476,22 @@
         <v>22</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>87</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>28</v>
@@ -7526,8 +7529,8 @@
       <c r="U93" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V93" s="1" t="s">
-        <v>33</v>
+      <c r="V93" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="94">
@@ -7541,22 +7544,22 @@
         <v>22</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>28</v>
@@ -7594,8 +7597,8 @@
       <c r="U94" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V94" s="1" t="s">
-        <v>33</v>
+      <c r="V94" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="95">
@@ -7609,22 +7612,22 @@
         <v>22</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>28</v>
@@ -7662,8 +7665,8 @@
       <c r="U95" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V95" s="1" t="s">
-        <v>33</v>
+      <c r="V95" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="96">
@@ -7677,7 +7680,7 @@
         <v>22</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>24</v>
@@ -7686,13 +7689,13 @@
         <v>73</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>28</v>
@@ -7707,7 +7710,7 @@
         <v>30</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O96" s="2" t="s">
         <v>32</v>
@@ -7730,8 +7733,8 @@
       <c r="U96" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V96" s="1" t="s">
-        <v>33</v>
+      <c r="V96" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="97">
@@ -7745,7 +7748,7 @@
         <v>22</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>34</v>
@@ -7754,13 +7757,13 @@
         <v>73</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>28</v>
@@ -7775,7 +7778,7 @@
         <v>30</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O97" s="2" t="s">
         <v>32</v>
@@ -7798,8 +7801,8 @@
       <c r="U97" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V97" s="1" t="s">
-        <v>33</v>
+      <c r="V97" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="98">
@@ -7813,7 +7816,7 @@
         <v>22</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>36</v>
@@ -7822,13 +7825,13 @@
         <v>73</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>28</v>
@@ -7843,7 +7846,7 @@
         <v>30</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O98" s="2" t="s">
         <v>32</v>
@@ -7866,8 +7869,8 @@
       <c r="U98" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V98" s="1" t="s">
-        <v>33</v>
+      <c r="V98" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="99">
@@ -7881,7 +7884,7 @@
         <v>22</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>39</v>
@@ -7890,13 +7893,13 @@
         <v>73</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>28</v>
@@ -7911,13 +7914,13 @@
         <v>30</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O99" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P99" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q99" s="2" t="s">
         <v>32</v>
@@ -7934,8 +7937,8 @@
       <c r="U99" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V99" s="1" t="s">
-        <v>33</v>
+      <c r="V99" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="100">
@@ -7949,7 +7952,7 @@
         <v>22</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>43</v>
@@ -7958,13 +7961,13 @@
         <v>73</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>28</v>
@@ -7979,7 +7982,7 @@
         <v>30</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O100" s="2" t="s">
         <v>32</v>
@@ -8002,8 +8005,8 @@
       <c r="U100" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V100" s="1" t="s">
-        <v>33</v>
+      <c r="V100" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="101">
@@ -8017,7 +8020,7 @@
         <v>22</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>46</v>
@@ -8026,13 +8029,13 @@
         <v>73</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>28</v>
@@ -8047,13 +8050,13 @@
         <v>30</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O101" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P101" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q101" s="2" t="s">
         <v>32</v>
@@ -8070,8 +8073,8 @@
       <c r="U101" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V101" s="1" t="s">
-        <v>33</v>
+      <c r="V101" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="102">
@@ -8085,7 +8088,7 @@
         <v>22</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>49</v>
@@ -8094,13 +8097,13 @@
         <v>73</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>28</v>
@@ -8115,13 +8118,13 @@
         <v>30</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O102" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P102" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q102" s="2" t="s">
         <v>32</v>
@@ -8138,8 +8141,8 @@
       <c r="U102" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V102" s="1" t="s">
-        <v>33</v>
+      <c r="V102" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="103">
@@ -8153,7 +8156,7 @@
         <v>22</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>53</v>
@@ -8162,13 +8165,13 @@
         <v>73</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>28</v>
@@ -8183,13 +8186,13 @@
         <v>30</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P103" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q103" s="2" t="s">
         <v>32</v>
@@ -8206,8 +8209,8 @@
       <c r="U103" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V103" s="1" t="s">
-        <v>33</v>
+      <c r="V103" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="104">
@@ -8221,7 +8224,7 @@
         <v>22</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>58</v>
@@ -8230,13 +8233,13 @@
         <v>73</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>28</v>
@@ -8251,13 +8254,13 @@
         <v>30</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P104" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q104" s="2" t="s">
         <v>32</v>
@@ -8274,8 +8277,8 @@
       <c r="U104" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V104" s="1" t="s">
-        <v>33</v>
+      <c r="V104" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="105">
@@ -8289,7 +8292,7 @@
         <v>22</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>63</v>
@@ -8298,13 +8301,13 @@
         <v>73</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>28</v>
@@ -8319,13 +8322,13 @@
         <v>30</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O105" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P105" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q105" s="2" t="s">
         <v>32</v>
@@ -8342,8 +8345,8 @@
       <c r="U105" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V105" s="1" t="s">
-        <v>33</v>
+      <c r="V105" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="106">
@@ -8357,7 +8360,7 @@
         <v>22</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>67</v>
@@ -8366,13 +8369,13 @@
         <v>73</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>28</v>
@@ -8387,13 +8390,13 @@
         <v>30</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O106" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P106" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q106" s="2" t="s">
         <v>32</v>
@@ -8410,8 +8413,8 @@
       <c r="U106" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V106" s="1" t="s">
-        <v>33</v>
+      <c r="V106" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="107">
@@ -8425,7 +8428,7 @@
         <v>22</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>71</v>
@@ -8434,13 +8437,13 @@
         <v>73</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>28</v>
@@ -8455,13 +8458,13 @@
         <v>30</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O107" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P107" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q107" s="2" t="s">
         <v>32</v>
@@ -8478,8 +8481,8 @@
       <c r="U107" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V107" s="1" t="s">
-        <v>33</v>
+      <c r="V107" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="108">
@@ -8493,7 +8496,7 @@
         <v>22</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>75</v>
@@ -8502,13 +8505,13 @@
         <v>73</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>28</v>
@@ -8523,7 +8526,7 @@
         <v>30</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O108" s="2" t="s">
         <v>32</v>
@@ -8546,8 +8549,8 @@
       <c r="U108" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V108" s="1" t="s">
-        <v>33</v>
+      <c r="V108" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="109">
@@ -8561,7 +8564,7 @@
         <v>22</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>78</v>
@@ -8570,13 +8573,13 @@
         <v>73</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>28</v>
@@ -8614,8 +8617,8 @@
       <c r="U109" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V109" s="1" t="s">
-        <v>33</v>
+      <c r="V109" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="110">
@@ -8629,22 +8632,22 @@
         <v>22</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>28</v>
@@ -8674,7 +8677,7 @@
         <v>32</v>
       </c>
       <c r="S110" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="T110" s="2" t="s">
         <v>32</v>
@@ -8682,8 +8685,8 @@
       <c r="U110" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V110" s="1" t="s">
-        <v>33</v>
+      <c r="V110" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="111">
@@ -8697,22 +8700,22 @@
         <v>22</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>28</v>
@@ -8742,7 +8745,7 @@
         <v>32</v>
       </c>
       <c r="S111" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="T111" s="2" t="s">
         <v>32</v>
@@ -8750,8 +8753,8 @@
       <c r="U111" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V111" s="1" t="s">
-        <v>33</v>
+      <c r="V111" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="112">
@@ -8765,22 +8768,22 @@
         <v>22</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>87</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>28</v>
@@ -8810,7 +8813,7 @@
         <v>32</v>
       </c>
       <c r="S112" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="T112" s="2" t="s">
         <v>32</v>
@@ -8818,8 +8821,8 @@
       <c r="U112" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V112" s="1" t="s">
-        <v>33</v>
+      <c r="V112" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="113">
@@ -8833,22 +8836,22 @@
         <v>22</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>28</v>
@@ -8878,7 +8881,7 @@
         <v>32</v>
       </c>
       <c r="S113" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="T113" s="2" t="s">
         <v>32</v>
@@ -8886,8 +8889,8 @@
       <c r="U113" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V113" s="1" t="s">
-        <v>33</v>
+      <c r="V113" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="114">
@@ -8901,22 +8904,22 @@
         <v>22</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>28</v>
@@ -8946,7 +8949,7 @@
         <v>32</v>
       </c>
       <c r="S114" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="T114" s="2" t="s">
         <v>32</v>
@@ -8954,8 +8957,8 @@
       <c r="U114" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V114" s="1" t="s">
-        <v>33</v>
+      <c r="V114" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="115">
@@ -8969,22 +8972,22 @@
         <v>22</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>28</v>
@@ -9014,7 +9017,7 @@
         <v>32</v>
       </c>
       <c r="S115" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T115" s="2" t="s">
         <v>32</v>
@@ -9022,8 +9025,8 @@
       <c r="U115" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V115" s="1" t="s">
-        <v>33</v>
+      <c r="V115" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="116">
@@ -9037,22 +9040,22 @@
         <v>22</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>98</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>28</v>
@@ -9082,7 +9085,7 @@
         <v>32</v>
       </c>
       <c r="S116" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="T116" s="2" t="s">
         <v>32</v>
@@ -9090,8 +9093,8 @@
       <c r="U116" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V116" s="1" t="s">
-        <v>33</v>
+      <c r="V116" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="117">
@@ -9105,22 +9108,22 @@
         <v>22</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>28</v>
@@ -9150,7 +9153,7 @@
         <v>32</v>
       </c>
       <c r="S117" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="T117" s="2" t="s">
         <v>32</v>
@@ -9158,8 +9161,8 @@
       <c r="U117" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V117" s="1" t="s">
-        <v>33</v>
+      <c r="V117" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="118">
@@ -9173,22 +9176,22 @@
         <v>22</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>102</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>28</v>
@@ -9218,7 +9221,7 @@
         <v>32</v>
       </c>
       <c r="S118" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="T118" s="2" t="s">
         <v>32</v>
@@ -9226,8 +9229,8 @@
       <c r="U118" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V118" s="1" t="s">
-        <v>33</v>
+      <c r="V118" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="119">
@@ -9241,22 +9244,22 @@
         <v>22</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>104</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>28</v>
@@ -9286,7 +9289,7 @@
         <v>32</v>
       </c>
       <c r="S119" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T119" s="2" t="s">
         <v>32</v>
@@ -9294,8 +9297,8 @@
       <c r="U119" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V119" s="1" t="s">
-        <v>33</v>
+      <c r="V119" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="120">
@@ -9309,22 +9312,22 @@
         <v>22</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>106</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>28</v>
@@ -9354,7 +9357,7 @@
         <v>32</v>
       </c>
       <c r="S120" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="T120" s="2" t="s">
         <v>32</v>
@@ -9362,8 +9365,8 @@
       <c r="U120" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V120" s="1" t="s">
-        <v>33</v>
+      <c r="V120" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="121">
@@ -9383,16 +9386,16 @@
         <v>108</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>28</v>
@@ -9422,7 +9425,7 @@
         <v>32</v>
       </c>
       <c r="S121" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="T121" s="2" t="s">
         <v>32</v>
@@ -9430,8 +9433,8 @@
       <c r="U121" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V121" s="1" t="s">
-        <v>33</v>
+      <c r="V121" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="122">
@@ -9445,22 +9448,22 @@
         <v>22</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>110</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>28</v>
@@ -9490,7 +9493,7 @@
         <v>32</v>
       </c>
       <c r="S122" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="T122" s="2" t="s">
         <v>32</v>
@@ -9498,8 +9501,8 @@
       <c r="U122" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V122" s="1" t="s">
-        <v>33</v>
+      <c r="V122" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="123">
@@ -9513,22 +9516,22 @@
         <v>22</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>112</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>28</v>
@@ -9558,7 +9561,7 @@
         <v>32</v>
       </c>
       <c r="S123" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="T123" s="2" t="s">
         <v>32</v>
@@ -9566,8 +9569,8 @@
       <c r="U123" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V123" s="1" t="s">
-        <v>33</v>
+      <c r="V123" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="124">
@@ -9581,22 +9584,22 @@
         <v>22</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>28</v>
@@ -9626,7 +9629,7 @@
         <v>32</v>
       </c>
       <c r="S124" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="T124" s="2" t="s">
         <v>32</v>
@@ -9634,8 +9637,8 @@
       <c r="U124" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V124" s="1" t="s">
-        <v>33</v>
+      <c r="V124" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="125">
@@ -9649,22 +9652,22 @@
         <v>22</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>28</v>
@@ -9694,7 +9697,7 @@
         <v>32</v>
       </c>
       <c r="S125" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="T125" s="2" t="s">
         <v>32</v>
@@ -9717,22 +9720,22 @@
         <v>22</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>115</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>28</v>
@@ -9762,7 +9765,7 @@
         <v>32</v>
       </c>
       <c r="S126" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="T126" s="2" t="s">
         <v>32</v>
@@ -9785,22 +9788,22 @@
         <v>22</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J127" s="2" t="s">
         <v>28</v>
@@ -9838,8 +9841,8 @@
       <c r="U127" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V127" s="1" t="s">
-        <v>33</v>
+      <c r="V127" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-TKM.xlsx
+++ b/Excel-XLSX/UN-TKM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="271">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -120,10 +120,28 @@
     <t>-</t>
   </si>
   <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>TJK</t>
+  </si>
+  <si>
+    <t>15000</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>1994</t>
   </si>
   <si>
-    <t>3</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>1995</t>
@@ -132,7 +150,70 @@
     <t>3000</t>
   </si>
   <si>
-    <t>4</t>
+    <t>6</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>AZE</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>Iran (Islamic Rep. of)</t>
+  </si>
+  <si>
+    <t>IRN</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>Unknown </t>
+  </si>
+  <si>
+    <t>UKN</t>
+  </si>
+  <si>
+    <t>UNK</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
   <si>
     <t>1996</t>
@@ -144,7 +225,34 @@
     <t>1750</t>
   </si>
   <si>
-    <t>5</t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>IRQ</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>12170</t>
+  </si>
+  <si>
+    <t>5330</t>
   </si>
   <si>
     <t>1997</t>
@@ -153,7 +261,28 @@
     <t>5450</t>
   </si>
   <si>
-    <t>6</t>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
   <si>
     <t>1998</t>
@@ -162,7 +291,25 @@
     <t>1115</t>
   </si>
   <si>
-    <t>7</t>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>13501</t>
+  </si>
+  <si>
+    <t>2490</t>
+  </si>
+  <si>
+    <t>28</t>
   </si>
   <si>
     <t>1999</t>
@@ -174,10 +321,19 @@
     <t>38</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>2000</t>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>17002</t>
+  </si>
+  <si>
+    <t>2261</t>
+  </si>
+  <si>
+    <t>31</t>
   </si>
   <si>
     <t>1450</t>
@@ -189,7 +345,34 @@
     <t>120</t>
   </si>
   <si>
-    <t>9</t>
+    <t>32</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>12659</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>36</t>
   </si>
   <si>
     <t>2001</t>
@@ -198,13 +381,31 @@
     <t>1515</t>
   </si>
   <si>
-    <t>89</t>
-  </si>
-  <si>
     <t>68</t>
   </si>
   <si>
-    <t>10</t>
+    <t>37</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>12383</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>40</t>
   </si>
   <si>
     <t>2002</t>
@@ -216,7 +417,25 @@
     <t>283</t>
   </si>
   <si>
-    <t>11</t>
+    <t>41</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>12272</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>44</t>
   </si>
   <si>
     <t>2003</t>
@@ -225,10 +444,25 @@
     <t>1224</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>12</t>
+    <t>45</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>12142</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>48</t>
   </si>
   <si>
     <t>2004</t>
@@ -237,10 +471,25 @@
     <t>1030</t>
   </si>
   <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>13</t>
+    <t>49</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>12085</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>52</t>
   </si>
   <si>
     <t>2005</t>
@@ -249,7 +498,25 @@
     <t>749</t>
   </si>
   <si>
-    <t>14</t>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>ARM</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>11173</t>
+  </si>
+  <si>
+    <t>57</t>
   </si>
   <si>
     <t>2006</t>
@@ -258,7 +525,16 @@
     <t>710</t>
   </si>
   <si>
-    <t>15</t>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>62</t>
   </si>
   <si>
     <t>2007</t>
@@ -267,556 +543,292 @@
     <t>85</t>
   </si>
   <si>
-    <t>16</t>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>Stateless</t>
+  </si>
+  <si>
+    <t>STA</t>
+  </si>
+  <si>
+    <t>XXA</t>
+  </si>
+  <si>
+    <t>8500</t>
+  </si>
+  <si>
+    <t>67</t>
   </si>
   <si>
     <t>2008</t>
   </si>
   <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>17</t>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
   </si>
   <si>
     <t>2009</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>18</t>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>12000</t>
+  </si>
+  <si>
+    <t>77</t>
   </si>
   <si>
     <t>2010</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>19</t>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
   </si>
   <si>
     <t>2011</t>
   </si>
   <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>20</t>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>11000</t>
+  </si>
+  <si>
+    <t>87</t>
   </si>
   <si>
     <t>2012</t>
   </si>
   <si>
-    <t>21</t>
+    <t>88</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>8947</t>
   </si>
   <si>
     <t>2013</t>
   </si>
   <si>
-    <t>22</t>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>8320</t>
   </si>
   <si>
     <t>2014</t>
   </si>
   <si>
-    <t>23</t>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>7511</t>
+  </si>
+  <si>
+    <t>99</t>
   </si>
   <si>
     <t>2015</t>
   </si>
   <si>
-    <t>24</t>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>7125</t>
+  </si>
+  <si>
+    <t>103</t>
   </si>
   <si>
     <t>2016</t>
   </si>
   <si>
-    <t>25</t>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>5744</t>
+  </si>
+  <si>
+    <t>106</t>
   </si>
   <si>
     <t>2017</t>
   </si>
   <si>
-    <t>26</t>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>3851</t>
+  </si>
+  <si>
+    <t>109</t>
   </si>
   <si>
     <t>2018</t>
   </si>
   <si>
-    <t>27</t>
+    <t>110</t>
+  </si>
+  <si>
+    <t>4714</t>
+  </si>
+  <si>
+    <t>112</t>
   </si>
   <si>
     <t>2019</t>
   </si>
   <si>
-    <t>28</t>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>3688</t>
+  </si>
+  <si>
+    <t>115</t>
   </si>
   <si>
     <t>2020</t>
   </si>
   <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>3924</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
     <t>2021</t>
   </si>
   <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>4280</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
     <t>2022</t>
   </si>
   <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>4527</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
     <t>2023</t>
   </si>
   <si>
     <t>3609</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>ARM</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
-    <t>AZE</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>290</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>Iran (Islamic Rep. of)</t>
-  </si>
-  <si>
-    <t>IRN</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>IRQ</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>RUS</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>TJK</t>
-  </si>
-  <si>
-    <t>15000</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>20000</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>12170</t>
-  </si>
-  <si>
-    <t>5330</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>13501</t>
-  </si>
-  <si>
-    <t>2490</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>17002</t>
-  </si>
-  <si>
-    <t>2261</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>12659</t>
-  </si>
-  <si>
-    <t>349</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>12383</t>
-  </si>
-  <si>
-    <t>252</t>
-  </si>
-  <si>
-    <t>276</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>12272</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>12142</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>12085</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>11173</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>Stateless</t>
-  </si>
-  <si>
-    <t>STA</t>
-  </si>
-  <si>
-    <t>XXA</t>
-  </si>
-  <si>
-    <t>8500</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>12000</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>11000</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>8947</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>8320</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>7511</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>7125</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>5744</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>3851</t>
-  </si>
-  <si>
-    <t>4714</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>3688</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>3924</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>4280</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>4527</t>
-  </si>
-  <si>
     <t>125</t>
   </si>
   <si>
+    <t>126</t>
+  </si>
+  <si>
     <t>3583</t>
   </si>
   <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>Unknown </t>
-  </si>
-  <si>
-    <t>UKN</t>
-  </si>
-  <si>
-    <t>UNK</t>
+    <t>127</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>3509</t>
+  </si>
+  <si>
+    <t>2790</t>
   </si>
 </sst>
 </file>
@@ -1201,7 +1213,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V127"/>
+  <dimension ref="A1:V130"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1359,19 +1371,19 @@
         <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>28</v>
@@ -1386,7 +1398,7 @@
         <v>30</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>32</v>
@@ -1424,10 +1436,10 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>25</v>
@@ -1454,7 +1466,7 @@
         <v>30</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>32</v>
@@ -1492,22 +1504,22 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>28</v>
@@ -1522,13 +1534,13 @@
         <v>30</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>32</v>
@@ -1560,10 +1572,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>25</v>
@@ -1590,7 +1602,7 @@
         <v>30</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>32</v>
@@ -1628,22 +1640,22 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>28</v>
@@ -1658,7 +1670,7 @@
         <v>30</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>32</v>
@@ -1696,22 +1708,22 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>28</v>
@@ -1726,13 +1738,13 @@
         <v>30</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>32</v>
@@ -1764,22 +1776,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>28</v>
@@ -1794,13 +1806,13 @@
         <v>30</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>32</v>
@@ -1832,22 +1844,22 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>28</v>
@@ -1865,10 +1877,10 @@
         <v>59</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>32</v>
@@ -1900,22 +1912,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="H11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>28</v>
@@ -1930,13 +1942,13 @@
         <v>30</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>32</v>
@@ -1968,10 +1980,10 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>25</v>
@@ -1998,13 +2010,13 @@
         <v>30</v>
       </c>
       <c r="N12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>32</v>
@@ -2036,43 +2048,43 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="O13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>32</v>
@@ -2104,22 +2116,22 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>28</v>
@@ -2134,13 +2146,13 @@
         <v>30</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>32</v>
@@ -2172,22 +2184,22 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>28</v>
@@ -2202,7 +2214,7 @@
         <v>30</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>32</v>
@@ -2240,22 +2252,22 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>28</v>
@@ -2270,13 +2282,13 @@
         <v>30</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>32</v>
@@ -2308,22 +2320,22 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>28</v>
@@ -2338,13 +2350,13 @@
         <v>30</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Q17" s="2" t="s">
         <v>32</v>
@@ -2376,10 +2388,10 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>25</v>
@@ -2406,13 +2418,13 @@
         <v>30</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>32</v>
@@ -2444,22 +2456,22 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>28</v>
@@ -2474,7 +2486,7 @@
         <v>30</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>32</v>
@@ -2512,22 +2524,22 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>28</v>
@@ -2542,7 +2554,7 @@
         <v>30</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>32</v>
@@ -2580,22 +2592,22 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>28</v>
@@ -2610,7 +2622,7 @@
         <v>30</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>32</v>
@@ -2648,22 +2660,22 @@
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>28</v>
@@ -2678,7 +2690,7 @@
         <v>30</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>32</v>
@@ -2716,22 +2728,22 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>28</v>
@@ -2746,13 +2758,13 @@
         <v>30</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="Q23" s="2" t="s">
         <v>32</v>
@@ -2784,10 +2796,10 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>25</v>
@@ -2814,7 +2826,7 @@
         <v>30</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>32</v>
@@ -2852,22 +2864,22 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>28</v>
@@ -2882,7 +2894,7 @@
         <v>30</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>32</v>
@@ -2920,22 +2932,22 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>28</v>
@@ -2950,7 +2962,7 @@
         <v>30</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>32</v>
@@ -2968,7 +2980,7 @@
         <v>32</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="U26" s="1" t="s">
         <v>33</v>
@@ -2988,22 +3000,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>28</v>
@@ -3018,7 +3030,7 @@
         <v>30</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>32</v>
@@ -3056,22 +3068,22 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>28</v>
@@ -3086,13 +3098,13 @@
         <v>30</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="Q28" s="2" t="s">
         <v>32</v>
@@ -3124,10 +3136,10 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>25</v>
@@ -3154,13 +3166,13 @@
         <v>30</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="Q29" s="2" t="s">
         <v>32</v>
@@ -3192,22 +3204,22 @@
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>28</v>
@@ -3222,13 +3234,13 @@
         <v>30</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="Q30" s="2" t="s">
         <v>32</v>
@@ -3260,22 +3272,22 @@
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>28</v>
@@ -3290,13 +3302,13 @@
         <v>30</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="Q31" s="2" t="s">
         <v>32</v>
@@ -3328,10 +3340,10 @@
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>25</v>
@@ -3358,13 +3370,13 @@
         <v>30</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="Q32" s="2" t="s">
         <v>32</v>
@@ -3396,22 +3408,22 @@
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>28</v>
@@ -3426,13 +3438,13 @@
         <v>30</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="Q33" s="2" t="s">
         <v>32</v>
@@ -3464,22 +3476,22 @@
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>28</v>
@@ -3494,7 +3506,7 @@
         <v>30</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="O34" s="2" t="s">
         <v>32</v>
@@ -3532,22 +3544,22 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>28</v>
@@ -3562,7 +3574,7 @@
         <v>30</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>32</v>
@@ -3600,22 +3612,22 @@
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>28</v>
@@ -3630,13 +3642,13 @@
         <v>30</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="Q36" s="2" t="s">
         <v>32</v>
@@ -3668,22 +3680,22 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>28</v>
@@ -3698,13 +3710,13 @@
         <v>30</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="Q37" s="2" t="s">
         <v>32</v>
@@ -3736,43 +3748,43 @@
         <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N38" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="O38" s="2" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>32</v>
@@ -3804,22 +3816,22 @@
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>28</v>
@@ -3834,10 +3846,10 @@
         <v>30</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>32</v>
@@ -3872,22 +3884,22 @@
         <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>28</v>
@@ -3902,13 +3914,13 @@
         <v>30</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="Q40" s="2" t="s">
         <v>32</v>
@@ -3940,22 +3952,22 @@
         <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>28</v>
@@ -3970,13 +3982,13 @@
         <v>30</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="O41" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="Q41" s="2" t="s">
         <v>32</v>
@@ -4008,22 +4020,22 @@
         <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>28</v>
@@ -4038,7 +4050,7 @@
         <v>30</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>32</v>
@@ -4076,22 +4088,22 @@
         <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F43" s="2" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>28</v>
@@ -4106,13 +4118,13 @@
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="Q43" s="2" t="s">
         <v>32</v>
@@ -4144,22 +4156,22 @@
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>28</v>
@@ -4174,13 +4186,13 @@
         <v>30</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="O44" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="Q44" s="2" t="s">
         <v>32</v>
@@ -4212,22 +4224,22 @@
         <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>28</v>
@@ -4242,13 +4254,13 @@
         <v>30</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="O45" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="Q45" s="2" t="s">
         <v>32</v>
@@ -4280,22 +4292,22 @@
         <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>28</v>
@@ -4310,13 +4322,13 @@
         <v>30</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="Q46" s="2" t="s">
         <v>32</v>
@@ -4348,22 +4360,22 @@
         <v>22</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>28</v>
@@ -4378,13 +4390,13 @@
         <v>30</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="Q47" s="2" t="s">
         <v>32</v>
@@ -4416,22 +4428,22 @@
         <v>22</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>28</v>
@@ -4446,13 +4458,13 @@
         <v>30</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="Q48" s="2" t="s">
         <v>32</v>
@@ -4484,22 +4496,22 @@
         <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>28</v>
@@ -4514,13 +4526,13 @@
         <v>30</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="O49" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q49" s="2" t="s">
         <v>32</v>
@@ -4552,22 +4564,22 @@
         <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>28</v>
@@ -4582,10 +4594,10 @@
         <v>30</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="P50" s="2" t="s">
         <v>32</v>
@@ -4620,22 +4632,22 @@
         <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>28</v>
@@ -4650,13 +4662,13 @@
         <v>30</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="O51" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="Q51" s="2" t="s">
         <v>32</v>
@@ -4688,22 +4700,22 @@
         <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>28</v>
@@ -4718,13 +4730,13 @@
         <v>30</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="O52" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="Q52" s="2" t="s">
         <v>32</v>
@@ -4756,22 +4768,22 @@
         <v>22</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>28</v>
@@ -4786,13 +4798,13 @@
         <v>30</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="O53" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="Q53" s="2" t="s">
         <v>32</v>
@@ -4824,22 +4836,22 @@
         <v>22</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>28</v>
@@ -4854,10 +4866,10 @@
         <v>30</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="P54" s="2" t="s">
         <v>32</v>
@@ -4892,22 +4904,22 @@
         <v>22</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>28</v>
@@ -4922,7 +4934,7 @@
         <v>30</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O55" s="2" t="s">
         <v>32</v>
@@ -4960,22 +4972,22 @@
         <v>22</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>28</v>
@@ -4990,7 +5002,7 @@
         <v>30</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="O56" s="2" t="s">
         <v>32</v>
@@ -5028,22 +5040,22 @@
         <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>28</v>
@@ -5058,13 +5070,13 @@
         <v>30</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>103</v>
+        <v>165</v>
       </c>
       <c r="O57" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="Q57" s="2" t="s">
         <v>32</v>
@@ -5096,22 +5108,22 @@
         <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>93</v>
+        <v>167</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>28</v>
@@ -5126,7 +5138,7 @@
         <v>30</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="O58" s="2" t="s">
         <v>32</v>
@@ -5164,22 +5176,22 @@
         <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>28</v>
@@ -5194,7 +5206,7 @@
         <v>30</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="O59" s="2" t="s">
         <v>32</v>
@@ -5232,22 +5244,22 @@
         <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>98</v>
+        <v>167</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>28</v>
@@ -5300,22 +5312,22 @@
         <v>22</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>28</v>
@@ -5330,7 +5342,7 @@
         <v>30</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="O61" s="2" t="s">
         <v>32</v>
@@ -5368,22 +5380,22 @@
         <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>102</v>
+        <v>167</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>28</v>
@@ -5398,13 +5410,13 @@
         <v>30</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="O62" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="Q62" s="2" t="s">
         <v>32</v>
@@ -5436,22 +5448,22 @@
         <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>104</v>
+        <v>173</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>28</v>
@@ -5466,13 +5478,13 @@
         <v>30</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>48</v>
+        <v>174</v>
       </c>
       <c r="O63" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="Q63" s="2" t="s">
         <v>32</v>
@@ -5504,22 +5516,22 @@
         <v>22</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>28</v>
@@ -5534,7 +5546,7 @@
         <v>30</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="O64" s="2" t="s">
         <v>32</v>
@@ -5572,22 +5584,22 @@
         <v>22</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>28</v>
@@ -5602,10 +5614,10 @@
         <v>30</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="P65" s="2" t="s">
         <v>32</v>
@@ -5640,22 +5652,22 @@
         <v>22</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>28</v>
@@ -5670,7 +5682,7 @@
         <v>30</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="O66" s="2" t="s">
         <v>32</v>
@@ -5708,22 +5720,22 @@
         <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>112</v>
+        <v>173</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>74</v>
+        <v>179</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>128</v>
+        <v>182</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>28</v>
@@ -5738,7 +5750,7 @@
         <v>30</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="O67" s="2" t="s">
         <v>32</v>
@@ -5753,7 +5765,7 @@
         <v>32</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="T67" s="2" t="s">
         <v>32</v>
@@ -5776,22 +5788,22 @@
         <v>22</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>113</v>
+        <v>185</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>28</v>
@@ -5806,13 +5818,13 @@
         <v>30</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="O68" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="Q68" s="2" t="s">
         <v>32</v>
@@ -5844,22 +5856,22 @@
         <v>22</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>114</v>
+        <v>185</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>28</v>
@@ -5874,7 +5886,7 @@
         <v>30</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O69" s="2" t="s">
         <v>32</v>
@@ -5912,22 +5924,22 @@
         <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>28</v>
@@ -5942,7 +5954,7 @@
         <v>30</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="O70" s="2" t="s">
         <v>32</v>
@@ -5980,22 +5992,22 @@
         <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>163</v>
+        <v>55</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>164</v>
+        <v>56</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>165</v>
+        <v>57</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>165</v>
+        <v>57</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>28</v>
@@ -6010,7 +6022,7 @@
         <v>30</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="O71" s="2" t="s">
         <v>32</v>
@@ -6048,22 +6060,22 @@
         <v>22</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>39</v>
+        <v>185</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>28</v>
@@ -6078,7 +6090,7 @@
         <v>30</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="O72" s="2" t="s">
         <v>32</v>
@@ -6093,7 +6105,7 @@
         <v>32</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="T72" s="2" t="s">
         <v>32</v>
@@ -6116,22 +6128,22 @@
         <v>22</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>163</v>
+        <v>25</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>164</v>
+        <v>26</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>28</v>
@@ -6146,13 +6158,13 @@
         <v>30</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="O73" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="Q73" s="2" t="s">
         <v>32</v>
@@ -6184,22 +6196,22 @@
         <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>46</v>
+        <v>190</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>163</v>
+        <v>60</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>28</v>
@@ -6214,7 +6226,7 @@
         <v>30</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="O74" s="2" t="s">
         <v>32</v>
@@ -6232,7 +6244,7 @@
         <v>32</v>
       </c>
       <c r="T74" s="2" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="U74" s="1" t="s">
         <v>33</v>
@@ -6252,22 +6264,22 @@
         <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>39</v>
+        <v>190</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>171</v>
+        <v>46</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>172</v>
+        <v>47</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>172</v>
+        <v>47</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>28</v>
@@ -6282,7 +6294,7 @@
         <v>30</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="O75" s="2" t="s">
         <v>32</v>
@@ -6320,22 +6332,22 @@
         <v>22</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>171</v>
+        <v>56</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>172</v>
+        <v>57</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>172</v>
+        <v>57</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>28</v>
@@ -6350,7 +6362,7 @@
         <v>30</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="O76" s="2" t="s">
         <v>32</v>
@@ -6388,22 +6400,22 @@
         <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>46</v>
+        <v>190</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>28</v>
@@ -6418,7 +6430,7 @@
         <v>30</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="O77" s="2" t="s">
         <v>32</v>
@@ -6433,7 +6445,7 @@
         <v>32</v>
       </c>
       <c r="S77" s="2" t="s">
-        <v>32</v>
+        <v>195</v>
       </c>
       <c r="T77" s="2" t="s">
         <v>32</v>
@@ -6456,22 +6468,22 @@
         <v>22</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>170</v>
+        <v>25</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>171</v>
+        <v>26</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>28</v>
@@ -6486,7 +6498,7 @@
         <v>30</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="O78" s="2" t="s">
         <v>32</v>
@@ -6524,22 +6536,22 @@
         <v>22</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>100</v>
+        <v>197</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>28</v>
@@ -6554,13 +6566,13 @@
         <v>30</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="O79" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="Q79" s="2" t="s">
         <v>32</v>
@@ -6592,22 +6604,22 @@
         <v>22</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>171</v>
+        <v>46</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>172</v>
+        <v>47</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>172</v>
+        <v>47</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>28</v>
@@ -6622,13 +6634,13 @@
         <v>30</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>32</v>
@@ -6660,22 +6672,22 @@
         <v>22</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>36</v>
+        <v>197</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>180</v>
+        <v>56</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>181</v>
+        <v>57</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>181</v>
+        <v>57</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>28</v>
@@ -6690,7 +6702,7 @@
         <v>30</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O81" s="2" t="s">
         <v>32</v>
@@ -6728,10 +6740,10 @@
         <v>22</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>39</v>
+        <v>197</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>179</v>
@@ -6743,7 +6755,7 @@
         <v>181</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>28</v>
@@ -6764,7 +6776,7 @@
         <v>32</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="Q82" s="2" t="s">
         <v>32</v>
@@ -6773,7 +6785,7 @@
         <v>32</v>
       </c>
       <c r="S82" s="2" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="T82" s="2" t="s">
         <v>32</v>
@@ -6796,22 +6808,22 @@
         <v>22</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>43</v>
+        <v>203</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>179</v>
+        <v>25</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>180</v>
+        <v>26</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>181</v>
+        <v>27</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>181</v>
+        <v>27</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>28</v>
@@ -6826,7 +6838,7 @@
         <v>30</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="O83" s="2" t="s">
         <v>32</v>
@@ -6864,22 +6876,22 @@
         <v>22</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>53</v>
+        <v>203</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>179</v>
+        <v>60</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>28</v>
@@ -6894,7 +6906,7 @@
         <v>30</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O84" s="2" t="s">
         <v>32</v>
@@ -6932,22 +6944,22 @@
         <v>22</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>58</v>
+        <v>203</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>180</v>
+        <v>46</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>181</v>
+        <v>47</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>181</v>
+        <v>47</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>28</v>
@@ -6962,10 +6974,10 @@
         <v>30</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="P85" s="2" t="s">
         <v>32</v>
@@ -7000,22 +7012,22 @@
         <v>22</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>63</v>
+        <v>203</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>180</v>
+        <v>56</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>181</v>
+        <v>57</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>181</v>
+        <v>57</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>28</v>
@@ -7030,13 +7042,13 @@
         <v>30</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="O86" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P86" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q86" s="2" t="s">
         <v>32</v>
@@ -7068,10 +7080,10 @@
         <v>22</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>67</v>
+        <v>203</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>179</v>
@@ -7083,7 +7095,7 @@
         <v>181</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>28</v>
@@ -7098,7 +7110,7 @@
         <v>30</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="O87" s="2" t="s">
         <v>32</v>
@@ -7113,7 +7125,7 @@
         <v>32</v>
       </c>
       <c r="S87" s="2" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="T87" s="2" t="s">
         <v>32</v>
@@ -7136,22 +7148,22 @@
         <v>22</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>71</v>
+        <v>209</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>179</v>
+        <v>25</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>180</v>
+        <v>26</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>181</v>
+        <v>27</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>181</v>
+        <v>27</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>28</v>
@@ -7166,13 +7178,13 @@
         <v>30</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="O88" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="Q88" s="2" t="s">
         <v>32</v>
@@ -7204,22 +7216,22 @@
         <v>22</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>75</v>
+        <v>209</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>179</v>
+        <v>60</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>28</v>
@@ -7234,7 +7246,7 @@
         <v>30</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="O89" s="2" t="s">
         <v>32</v>
@@ -7272,22 +7284,22 @@
         <v>22</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>78</v>
+        <v>209</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>180</v>
+        <v>46</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>181</v>
+        <v>47</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>181</v>
+        <v>47</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>28</v>
@@ -7302,7 +7314,7 @@
         <v>30</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="O90" s="2" t="s">
         <v>32</v>
@@ -7340,10 +7352,10 @@
         <v>22</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>81</v>
+        <v>209</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>179</v>
@@ -7355,7 +7367,7 @@
         <v>181</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>28</v>
@@ -7370,7 +7382,7 @@
         <v>30</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="O91" s="2" t="s">
         <v>32</v>
@@ -7385,7 +7397,7 @@
         <v>32</v>
       </c>
       <c r="S91" s="2" t="s">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="T91" s="2" t="s">
         <v>32</v>
@@ -7408,22 +7420,22 @@
         <v>22</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>163</v>
+        <v>50</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>84</v>
+        <v>213</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>179</v>
+        <v>25</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>180</v>
+        <v>26</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>181</v>
+        <v>27</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>181</v>
+        <v>27</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>28</v>
@@ -7438,7 +7450,7 @@
         <v>30</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="O92" s="2" t="s">
         <v>32</v>
@@ -7476,22 +7488,22 @@
         <v>22</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>170</v>
+        <v>72</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>87</v>
+        <v>213</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>179</v>
+        <v>60</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>28</v>
@@ -7506,7 +7518,7 @@
         <v>30</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O93" s="2" t="s">
         <v>32</v>
@@ -7544,22 +7556,22 @@
         <v>22</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>90</v>
+        <v>213</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>180</v>
+        <v>46</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>181</v>
+        <v>47</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>181</v>
+        <v>47</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>28</v>
@@ -7574,7 +7586,7 @@
         <v>30</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="O94" s="2" t="s">
         <v>32</v>
@@ -7612,10 +7624,10 @@
         <v>22</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>93</v>
+        <v>213</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>179</v>
@@ -7627,7 +7639,7 @@
         <v>181</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>28</v>
@@ -7648,7 +7660,7 @@
         <v>32</v>
       </c>
       <c r="P95" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="Q95" s="2" t="s">
         <v>32</v>
@@ -7657,7 +7669,7 @@
         <v>32</v>
       </c>
       <c r="S95" s="2" t="s">
-        <v>32</v>
+        <v>216</v>
       </c>
       <c r="T95" s="2" t="s">
         <v>32</v>
@@ -7680,22 +7692,22 @@
         <v>22</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>192</v>
+        <v>26</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>193</v>
+        <v>27</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>193</v>
+        <v>27</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>28</v>
@@ -7710,7 +7722,7 @@
         <v>30</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>194</v>
+        <v>82</v>
       </c>
       <c r="O96" s="2" t="s">
         <v>32</v>
@@ -7748,22 +7760,22 @@
         <v>22</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>34</v>
+        <v>217</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>192</v>
+        <v>46</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>193</v>
+        <v>47</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>193</v>
+        <v>47</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>28</v>
@@ -7778,7 +7790,7 @@
         <v>30</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>194</v>
+        <v>75</v>
       </c>
       <c r="O97" s="2" t="s">
         <v>32</v>
@@ -7816,22 +7828,22 @@
         <v>22</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>36</v>
+        <v>217</v>
       </c>
       <c r="F98" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G98" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G98" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="H98" s="1" t="s">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>28</v>
@@ -7846,13 +7858,13 @@
         <v>30</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>197</v>
+        <v>32</v>
       </c>
       <c r="O98" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P98" s="2" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="Q98" s="2" t="s">
         <v>32</v>
@@ -7884,22 +7896,22 @@
         <v>22</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>39</v>
+        <v>217</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>73</v>
+        <v>179</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>28</v>
@@ -7914,13 +7926,13 @@
         <v>30</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>199</v>
+        <v>32</v>
       </c>
       <c r="O99" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P99" s="2" t="s">
-        <v>200</v>
+        <v>32</v>
       </c>
       <c r="Q99" s="2" t="s">
         <v>32</v>
@@ -7929,7 +7941,7 @@
         <v>32</v>
       </c>
       <c r="S99" s="2" t="s">
-        <v>32</v>
+        <v>221</v>
       </c>
       <c r="T99" s="2" t="s">
         <v>32</v>
@@ -7952,22 +7964,22 @@
         <v>22</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>43</v>
+        <v>223</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>192</v>
+        <v>26</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>193</v>
+        <v>27</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>193</v>
+        <v>27</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>28</v>
@@ -7982,13 +7994,13 @@
         <v>30</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="O100" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P100" s="2" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="Q100" s="2" t="s">
         <v>32</v>
@@ -8020,22 +8032,22 @@
         <v>22</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="E101" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G101" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F101" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="H101" s="1" t="s">
-        <v>193</v>
+        <v>47</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>193</v>
+        <v>47</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>28</v>
@@ -8050,13 +8062,13 @@
         <v>30</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>204</v>
+        <v>49</v>
       </c>
       <c r="O101" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P101" s="2" t="s">
-        <v>205</v>
+        <v>32</v>
       </c>
       <c r="Q101" s="2" t="s">
         <v>32</v>
@@ -8088,43 +8100,43 @@
         <v>22</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="E102" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N102" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O102" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P102" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J102" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K102" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L102" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M102" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N102" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="O102" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P102" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="Q102" s="2" t="s">
         <v>32</v>
@@ -8156,22 +8168,22 @@
         <v>22</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>53</v>
+        <v>223</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>73</v>
+        <v>179</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>28</v>
@@ -8186,13 +8198,13 @@
         <v>30</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>210</v>
+        <v>32</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>211</v>
+        <v>32</v>
       </c>
       <c r="P103" s="2" t="s">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="Q103" s="2" t="s">
         <v>32</v>
@@ -8201,7 +8213,7 @@
         <v>32</v>
       </c>
       <c r="S103" s="2" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="T103" s="2" t="s">
         <v>32</v>
@@ -8224,22 +8236,22 @@
         <v>22</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>58</v>
+        <v>229</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>192</v>
+        <v>26</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>193</v>
+        <v>27</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>193</v>
+        <v>27</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>28</v>
@@ -8254,13 +8266,13 @@
         <v>30</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>214</v>
+        <v>82</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>215</v>
+        <v>32</v>
       </c>
       <c r="P104" s="2" t="s">
-        <v>216</v>
+        <v>32</v>
       </c>
       <c r="Q104" s="2" t="s">
         <v>32</v>
@@ -8292,22 +8304,22 @@
         <v>22</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>63</v>
+        <v>229</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>192</v>
+        <v>46</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>193</v>
+        <v>47</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>193</v>
+        <v>47</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>28</v>
@@ -8322,13 +8334,13 @@
         <v>30</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>218</v>
+        <v>49</v>
       </c>
       <c r="O105" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P105" s="2" t="s">
-        <v>219</v>
+        <v>32</v>
       </c>
       <c r="Q105" s="2" t="s">
         <v>32</v>
@@ -8360,22 +8372,22 @@
         <v>22</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>67</v>
+        <v>229</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>73</v>
+        <v>179</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>28</v>
@@ -8390,13 +8402,13 @@
         <v>30</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>221</v>
+        <v>32</v>
       </c>
       <c r="O106" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P106" s="2" t="s">
-        <v>222</v>
+        <v>32</v>
       </c>
       <c r="Q106" s="2" t="s">
         <v>32</v>
@@ -8405,7 +8417,7 @@
         <v>32</v>
       </c>
       <c r="S106" s="2" t="s">
-        <v>32</v>
+        <v>232</v>
       </c>
       <c r="T106" s="2" t="s">
         <v>32</v>
@@ -8428,22 +8440,22 @@
         <v>22</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>71</v>
+        <v>234</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>192</v>
+        <v>26</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>193</v>
+        <v>27</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>193</v>
+        <v>27</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>28</v>
@@ -8458,13 +8470,13 @@
         <v>30</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>224</v>
+        <v>53</v>
       </c>
       <c r="O107" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P107" s="2" t="s">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="Q107" s="2" t="s">
         <v>32</v>
@@ -8496,22 +8508,22 @@
         <v>22</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>75</v>
+        <v>234</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>192</v>
+        <v>46</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>193</v>
+        <v>47</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>193</v>
+        <v>47</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>28</v>
@@ -8526,13 +8538,13 @@
         <v>30</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>226</v>
+        <v>54</v>
       </c>
       <c r="O108" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P108" s="2" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="Q108" s="2" t="s">
         <v>32</v>
@@ -8564,22 +8576,22 @@
         <v>22</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>73</v>
+        <v>179</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>28</v>
@@ -8600,7 +8612,7 @@
         <v>32</v>
       </c>
       <c r="P109" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="Q109" s="2" t="s">
         <v>32</v>
@@ -8609,7 +8621,7 @@
         <v>32</v>
       </c>
       <c r="S109" s="2" t="s">
-        <v>32</v>
+        <v>237</v>
       </c>
       <c r="T109" s="2" t="s">
         <v>32</v>
@@ -8632,22 +8644,22 @@
         <v>22</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>81</v>
+        <v>239</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>229</v>
+        <v>25</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>230</v>
+        <v>26</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>231</v>
+        <v>27</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>232</v>
+        <v>27</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>28</v>
@@ -8662,7 +8674,7 @@
         <v>30</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="O110" s="2" t="s">
         <v>32</v>
@@ -8677,7 +8689,7 @@
         <v>32</v>
       </c>
       <c r="S110" s="2" t="s">
-        <v>233</v>
+        <v>32</v>
       </c>
       <c r="T110" s="2" t="s">
         <v>32</v>
@@ -8700,22 +8712,22 @@
         <v>22</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>84</v>
+        <v>239</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>229</v>
+        <v>45</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>230</v>
+        <v>46</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>231</v>
+        <v>47</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>232</v>
+        <v>47</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>28</v>
@@ -8730,7 +8742,7 @@
         <v>30</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="O111" s="2" t="s">
         <v>32</v>
@@ -8745,7 +8757,7 @@
         <v>32</v>
       </c>
       <c r="S111" s="2" t="s">
-        <v>233</v>
+        <v>32</v>
       </c>
       <c r="T111" s="2" t="s">
         <v>32</v>
@@ -8768,22 +8780,22 @@
         <v>22</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>219</v>
+        <v>138</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>87</v>
+        <v>239</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>229</v>
+        <v>179</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>231</v>
+        <v>181</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>232</v>
+        <v>182</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>28</v>
@@ -8813,7 +8825,7 @@
         <v>32</v>
       </c>
       <c r="S112" s="2" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="T112" s="2" t="s">
         <v>32</v>
@@ -8836,22 +8848,22 @@
         <v>22</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>90</v>
+        <v>243</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>229</v>
+        <v>25</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>230</v>
+        <v>26</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>231</v>
+        <v>27</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>232</v>
+        <v>27</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>28</v>
@@ -8866,7 +8878,7 @@
         <v>30</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="O113" s="2" t="s">
         <v>32</v>
@@ -8881,7 +8893,7 @@
         <v>32</v>
       </c>
       <c r="S113" s="2" t="s">
-        <v>197</v>
+        <v>32</v>
       </c>
       <c r="T113" s="2" t="s">
         <v>32</v>
@@ -8904,22 +8916,22 @@
         <v>22</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>93</v>
+        <v>243</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>229</v>
+        <v>45</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>230</v>
+        <v>46</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>231</v>
+        <v>47</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>232</v>
+        <v>47</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>28</v>
@@ -8934,7 +8946,7 @@
         <v>30</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="O114" s="2" t="s">
         <v>32</v>
@@ -8949,7 +8961,7 @@
         <v>32</v>
       </c>
       <c r="S114" s="2" t="s">
-        <v>238</v>
+        <v>32</v>
       </c>
       <c r="T114" s="2" t="s">
         <v>32</v>
@@ -8972,22 +8984,22 @@
         <v>22</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>96</v>
+        <v>243</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>229</v>
+        <v>179</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>231</v>
+        <v>181</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>232</v>
+        <v>182</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>28</v>
@@ -9017,7 +9029,7 @@
         <v>32</v>
       </c>
       <c r="S115" s="2" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="T115" s="2" t="s">
         <v>32</v>
@@ -9040,22 +9052,22 @@
         <v>22</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>229</v>
+        <v>25</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>230</v>
+        <v>26</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>231</v>
+        <v>27</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>232</v>
+        <v>27</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>28</v>
@@ -9070,7 +9082,7 @@
         <v>30</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="O116" s="2" t="s">
         <v>32</v>
@@ -9085,7 +9097,7 @@
         <v>32</v>
       </c>
       <c r="S116" s="2" t="s">
-        <v>242</v>
+        <v>32</v>
       </c>
       <c r="T116" s="2" t="s">
         <v>32</v>
@@ -9108,22 +9120,22 @@
         <v>22</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>100</v>
+        <v>248</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>229</v>
+        <v>45</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>230</v>
+        <v>46</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>231</v>
+        <v>47</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>232</v>
+        <v>47</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>28</v>
@@ -9138,7 +9150,7 @@
         <v>30</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="O117" s="2" t="s">
         <v>32</v>
@@ -9153,7 +9165,7 @@
         <v>32</v>
       </c>
       <c r="S117" s="2" t="s">
-        <v>244</v>
+        <v>32</v>
       </c>
       <c r="T117" s="2" t="s">
         <v>32</v>
@@ -9176,22 +9188,22 @@
         <v>22</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>229</v>
+        <v>179</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>231</v>
+        <v>181</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>232</v>
+        <v>182</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>28</v>
@@ -9221,7 +9233,7 @@
         <v>32</v>
       </c>
       <c r="S118" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="T118" s="2" t="s">
         <v>32</v>
@@ -9244,22 +9256,22 @@
         <v>22</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>104</v>
+        <v>253</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>229</v>
+        <v>25</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>230</v>
+        <v>26</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>231</v>
+        <v>27</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>232</v>
+        <v>27</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>28</v>
@@ -9274,7 +9286,7 @@
         <v>30</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="O119" s="2" t="s">
         <v>32</v>
@@ -9289,7 +9301,7 @@
         <v>32</v>
       </c>
       <c r="S119" s="2" t="s">
-        <v>248</v>
+        <v>32</v>
       </c>
       <c r="T119" s="2" t="s">
         <v>32</v>
@@ -9312,22 +9324,22 @@
         <v>22</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>106</v>
+        <v>253</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>229</v>
+        <v>45</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>230</v>
+        <v>46</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>231</v>
+        <v>47</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>232</v>
+        <v>47</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>28</v>
@@ -9342,7 +9354,7 @@
         <v>30</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="O120" s="2" t="s">
         <v>32</v>
@@ -9357,7 +9369,7 @@
         <v>32</v>
       </c>
       <c r="S120" s="2" t="s">
-        <v>250</v>
+        <v>32</v>
       </c>
       <c r="T120" s="2" t="s">
         <v>32</v>
@@ -9380,22 +9392,22 @@
         <v>22</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>108</v>
+        <v>253</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>229</v>
+        <v>179</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>231</v>
+        <v>181</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>232</v>
+        <v>182</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>28</v>
@@ -9425,7 +9437,7 @@
         <v>32</v>
       </c>
       <c r="S121" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="T121" s="2" t="s">
         <v>32</v>
@@ -9448,22 +9460,22 @@
         <v>22</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>110</v>
+        <v>257</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>229</v>
+        <v>25</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>230</v>
+        <v>26</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>231</v>
+        <v>27</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>232</v>
+        <v>27</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>28</v>
@@ -9478,7 +9490,7 @@
         <v>30</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="O122" s="2" t="s">
         <v>32</v>
@@ -9493,7 +9505,7 @@
         <v>32</v>
       </c>
       <c r="S122" s="2" t="s">
-        <v>253</v>
+        <v>32</v>
       </c>
       <c r="T122" s="2" t="s">
         <v>32</v>
@@ -9516,22 +9528,22 @@
         <v>22</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>112</v>
+        <v>257</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>229</v>
+        <v>45</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>230</v>
+        <v>46</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>231</v>
+        <v>47</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>232</v>
+        <v>47</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>28</v>
@@ -9546,7 +9558,7 @@
         <v>30</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="O123" s="2" t="s">
         <v>32</v>
@@ -9561,7 +9573,7 @@
         <v>32</v>
       </c>
       <c r="S123" s="2" t="s">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="T123" s="2" t="s">
         <v>32</v>
@@ -9584,22 +9596,22 @@
         <v>22</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>113</v>
+        <v>257</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>229</v>
+        <v>179</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>231</v>
+        <v>181</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>232</v>
+        <v>182</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>28</v>
@@ -9629,7 +9641,7 @@
         <v>32</v>
       </c>
       <c r="S124" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="T124" s="2" t="s">
         <v>32</v>
@@ -9652,22 +9664,22 @@
         <v>22</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>114</v>
+        <v>262</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>229</v>
+        <v>25</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>230</v>
+        <v>26</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>231</v>
+        <v>27</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>232</v>
+        <v>27</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>28</v>
@@ -9682,7 +9694,7 @@
         <v>30</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>32</v>
+        <v>263</v>
       </c>
       <c r="O125" s="2" t="s">
         <v>32</v>
@@ -9697,7 +9709,7 @@
         <v>32</v>
       </c>
       <c r="S125" s="2" t="s">
-        <v>259</v>
+        <v>32</v>
       </c>
       <c r="T125" s="2" t="s">
         <v>32</v>
@@ -9720,22 +9732,22 @@
         <v>22</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>115</v>
+        <v>262</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>229</v>
+        <v>45</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>230</v>
+        <v>46</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>231</v>
+        <v>47</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>232</v>
+        <v>47</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>28</v>
@@ -9750,7 +9762,7 @@
         <v>30</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="O126" s="2" t="s">
         <v>32</v>
@@ -9765,7 +9777,7 @@
         <v>32</v>
       </c>
       <c r="S126" s="2" t="s">
-        <v>261</v>
+        <v>32</v>
       </c>
       <c r="T126" s="2" t="s">
         <v>32</v>
@@ -9788,53 +9800,53 @@
         <v>22</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E127" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F127" s="2" t="s">
-        <v>263</v>
+        <v>179</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>264</v>
+        <v>180</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>265</v>
+        <v>181</v>
       </c>
       <c r="I127" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M127" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N127" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O127" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P127" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q127" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R127" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S127" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="J127" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K127" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L127" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M127" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N127" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O127" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P127" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q127" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R127" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S127" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="T127" s="2" t="s">
         <v>32</v>
       </c>
@@ -9842,6 +9854,210 @@
         <v>33</v>
       </c>
       <c r="V127" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J128" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M128" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N128" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="O128" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P128" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q128" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R128" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S128" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T128" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U128" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V128" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J129" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L129" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M129" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N129" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O129" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P129" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q129" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R129" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S129" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T129" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U129" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V129" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J130" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L130" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M130" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N130" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O130" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P130" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q130" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R130" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S130" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="T130" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U130" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V130" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Excel-XLSX/UN-TKM.xlsx
+++ b/Excel-XLSX/UN-TKM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="270">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>8DWxu2</t>
+    <t>3Nljol</t>
   </si>
   <si>
     <t>1993</t>
@@ -825,10 +825,7 @@
     <t>2024</t>
   </si>
   <si>
-    <t>3509</t>
-  </si>
-  <si>
-    <t>2790</t>
+    <t>3409</t>
   </si>
 </sst>
 </file>
@@ -1213,7 +1210,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V130"/>
+  <dimension ref="A1:V128"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -9925,142 +9922,6 @@
         <v>32</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I129" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J129" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K129" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L129" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M129" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N129" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O129" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P129" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q129" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R129" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S129" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T129" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U129" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V129" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I130" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="J130" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K130" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L130" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M130" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N130" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O130" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P130" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q130" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R130" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S130" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="T130" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U130" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V130" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
